--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\BASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5921841-A0D2-4D17-B384-FECA61C92F1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DB102-E81A-4A98-9230-11CEF5DC85D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
+    <workbookView minimized="1" xWindow="2550" yWindow="2655" windowWidth="24810" windowHeight="9840" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 2" sheetId="3" r:id="rId1"/>
@@ -1229,6 +1229,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,12 +1261,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1766,30 +1766,30 @@
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="157" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="157" t="s">
+      <c r="G1" s="160"/>
+      <c r="H1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="159"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="157" t="s">
+      <c r="I1" s="161"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="159"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="157" t="s">
+      <c r="L1" s="161"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="160"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="163">
+      <c r="A2" s="165">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2093,7 +2093,7 @@
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="48" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="164"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="48" t="s">
         <v>15</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="47" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="164"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="48" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="47" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="48" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="48" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
+      <c r="A18" s="166"/>
       <c r="B18" s="49" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="50" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
+      <c r="A20" s="167"/>
       <c r="B20" s="51" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="163">
+      <c r="A21" s="165">
         <v>0.34027777777777773</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -2334,7 +2334,7 @@
       <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="47" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="48" t="s">
         <v>15</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
+      <c r="A24" s="166"/>
       <c r="B24" s="48" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
+      <c r="A26" s="166"/>
       <c r="B26" s="48" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="48" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="G27" s="154"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="54" t="s">
         <v>22</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="G28" s="156"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
+      <c r="A29" s="166"/>
       <c r="B29" s="47" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="G29" s="154"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
+      <c r="A30" s="166"/>
       <c r="B30" s="48" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
+      <c r="A31" s="166"/>
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="164"/>
+      <c r="A32" s="166"/>
       <c r="B32" s="47" t="s">
         <v>18</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
+      <c r="A33" s="166"/>
       <c r="B33" s="48" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
+      <c r="A34" s="166"/>
       <c r="B34" s="48" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
+      <c r="A35" s="166"/>
       <c r="B35" s="47" t="s">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="164"/>
+      <c r="A36" s="166"/>
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
+      <c r="A37" s="166"/>
       <c r="B37" s="48" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="164"/>
+      <c r="A38" s="166"/>
       <c r="B38" s="49" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2563,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="164"/>
+      <c r="A39" s="166"/>
       <c r="B39" s="50" t="s">
         <v>20</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="165"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="51" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="163">
+      <c r="A41" s="165">
         <v>0.3611111111111111</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -2622,7 +2622,7 @@
       <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="164"/>
+      <c r="A42" s="166"/>
       <c r="B42" s="47" t="s">
         <v>1</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="164"/>
+      <c r="A43" s="166"/>
       <c r="B43" s="48" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="164"/>
+      <c r="A44" s="166"/>
       <c r="B44" s="48" t="s">
         <v>17</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="164"/>
+      <c r="A45" s="166"/>
       <c r="B45" s="47" t="s">
         <v>16</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
+      <c r="A46" s="166"/>
       <c r="B46" s="48" t="s">
         <v>15</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
+      <c r="A47" s="166"/>
       <c r="B47" s="48" t="s">
         <v>17</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
+      <c r="A48" s="166"/>
       <c r="B48" s="54" t="s">
         <v>22</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="G48" s="56"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="47" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
+      <c r="A50" s="166"/>
       <c r="B50" s="48" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
+      <c r="A51" s="166"/>
       <c r="B51" s="48" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
+      <c r="A52" s="166"/>
       <c r="B52" s="47" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
+      <c r="A53" s="166"/>
       <c r="B53" s="48" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
+      <c r="A54" s="166"/>
       <c r="B54" s="48" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
+      <c r="A55" s="166"/>
       <c r="B55" s="47" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="164"/>
+      <c r="A56" s="166"/>
       <c r="B56" s="48" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="164"/>
+      <c r="A57" s="166"/>
       <c r="B57" s="48" t="s">
         <v>17</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="164"/>
+      <c r="A58" s="166"/>
       <c r="B58" s="49" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
+      <c r="A59" s="166"/>
       <c r="B59" s="50" t="s">
         <v>20</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="165"/>
+      <c r="A60" s="167"/>
       <c r="B60" s="51" t="s">
         <v>21</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="163">
+      <c r="A61" s="165">
         <v>0.375</v>
       </c>
       <c r="B61" s="43" t="s">
@@ -2925,7 +2925,7 @@
       <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="164"/>
+      <c r="A62" s="166"/>
       <c r="B62" s="47" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="164"/>
+      <c r="A63" s="166"/>
       <c r="B63" s="48" t="s">
         <v>15</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="164"/>
+      <c r="A64" s="166"/>
       <c r="B64" s="48" t="s">
         <v>17</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
+      <c r="A65" s="166"/>
       <c r="B65" s="47" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="164"/>
+      <c r="A66" s="166"/>
       <c r="B66" s="48" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="164"/>
+      <c r="A67" s="166"/>
       <c r="B67" s="48" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="164"/>
+      <c r="A68" s="166"/>
       <c r="B68" s="54" t="s">
         <v>22</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="G68" s="56"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="164"/>
+      <c r="A69" s="166"/>
       <c r="B69" s="47" t="s">
         <v>2</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="164"/>
+      <c r="A70" s="166"/>
       <c r="B70" s="48" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
+      <c r="A71" s="166"/>
       <c r="B71" s="48" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="164"/>
+      <c r="A72" s="166"/>
       <c r="B72" s="47" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="164"/>
+      <c r="A73" s="166"/>
       <c r="B73" s="48" t="s">
         <v>15</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="164"/>
+      <c r="A74" s="166"/>
       <c r="B74" s="48" t="s">
         <v>17</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="164"/>
+      <c r="A75" s="166"/>
       <c r="B75" s="47" t="s">
         <v>3</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="164"/>
+      <c r="A76" s="166"/>
       <c r="B76" s="48" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="164"/>
+      <c r="A77" s="166"/>
       <c r="B77" s="48" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="164"/>
+      <c r="A78" s="166"/>
       <c r="B78" s="49" t="s">
         <v>19</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="164"/>
+      <c r="A79" s="166"/>
       <c r="B79" s="50" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="165"/>
+      <c r="A80" s="167"/>
       <c r="B80" s="51" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="163">
+      <c r="A81" s="165">
         <v>0.38541666666666669</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -3240,7 +3240,7 @@
       <c r="G81" s="46"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="164"/>
+      <c r="A82" s="166"/>
       <c r="B82" s="47" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="164"/>
+      <c r="A83" s="166"/>
       <c r="B83" s="48" t="s">
         <v>15</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="164"/>
+      <c r="A84" s="166"/>
       <c r="B84" s="48" t="s">
         <v>17</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="164"/>
+      <c r="A85" s="166"/>
       <c r="B85" s="47" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="164"/>
+      <c r="A86" s="166"/>
       <c r="B86" s="48" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="164"/>
+      <c r="A87" s="166"/>
       <c r="B87" s="48" t="s">
         <v>17</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="G87" s="55"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="164"/>
+      <c r="A88" s="166"/>
       <c r="B88" s="54" t="s">
         <v>22</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="G88" s="56"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="164"/>
+      <c r="A89" s="166"/>
       <c r="B89" s="47" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="G89" s="55"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="164"/>
+      <c r="A90" s="166"/>
       <c r="B90" s="48" t="s">
         <v>15</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="164"/>
+      <c r="A91" s="166"/>
       <c r="B91" s="48" t="s">
         <v>17</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="164"/>
+      <c r="A92" s="166"/>
       <c r="B92" s="47" t="s">
         <v>18</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="164"/>
+      <c r="A93" s="166"/>
       <c r="B93" s="48" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="164"/>
+      <c r="A94" s="166"/>
       <c r="B94" s="48" t="s">
         <v>17</v>
       </c>
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="164"/>
+      <c r="A95" s="166"/>
       <c r="B95" s="47" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="164"/>
+      <c r="A96" s="166"/>
       <c r="B96" s="48" t="s">
         <v>15</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="164"/>
+      <c r="A97" s="166"/>
       <c r="B97" s="48" t="s">
         <v>17</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="164"/>
+      <c r="A98" s="166"/>
       <c r="B98" s="49" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="164"/>
+      <c r="A99" s="166"/>
       <c r="B99" s="50" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="165"/>
+      <c r="A100" s="167"/>
       <c r="B100" s="51" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="163">
+      <c r="A101" s="165">
         <v>0.40625</v>
       </c>
       <c r="B101" s="43" t="s">
@@ -3573,7 +3573,7 @@
       <c r="G101" s="46"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="164"/>
+      <c r="A102" s="166"/>
       <c r="B102" s="47" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="164"/>
+      <c r="A103" s="166"/>
       <c r="B103" s="48" t="s">
         <v>15</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="164"/>
+      <c r="A104" s="166"/>
       <c r="B104" s="48" t="s">
         <v>17</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="164"/>
+      <c r="A105" s="166"/>
       <c r="B105" s="47" t="s">
         <v>16</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="164"/>
+      <c r="A106" s="166"/>
       <c r="B106" s="48" t="s">
         <v>15</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="164"/>
+      <c r="A107" s="166"/>
       <c r="B107" s="48" t="s">
         <v>17</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="164"/>
+      <c r="A108" s="166"/>
       <c r="B108" s="54" t="s">
         <v>22</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="G108" s="56"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="164"/>
+      <c r="A109" s="166"/>
       <c r="B109" s="47" t="s">
         <v>2</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="164"/>
+      <c r="A110" s="166"/>
       <c r="B110" s="48" t="s">
         <v>15</v>
       </c>
@@ -3714,7 +3714,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="164"/>
+      <c r="A111" s="166"/>
       <c r="B111" s="48" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="164"/>
+      <c r="A112" s="166"/>
       <c r="B112" s="47" t="s">
         <v>18</v>
       </c>
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="164"/>
+      <c r="A113" s="166"/>
       <c r="B113" s="48" t="s">
         <v>15</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="164"/>
+      <c r="A114" s="166"/>
       <c r="B114" s="48" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="164"/>
+      <c r="A115" s="166"/>
       <c r="B115" s="47" t="s">
         <v>3</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="164"/>
+      <c r="A116" s="166"/>
       <c r="B116" s="48" t="s">
         <v>15</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="164"/>
+      <c r="A117" s="166"/>
       <c r="B117" s="48" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="164"/>
+      <c r="A118" s="166"/>
       <c r="B118" s="49" t="s">
         <v>19</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="164"/>
+      <c r="A119" s="166"/>
       <c r="B119" s="50" t="s">
         <v>20</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="165"/>
+      <c r="A120" s="167"/>
       <c r="B120" s="51" t="s">
         <v>21</v>
       </c>
@@ -3917,11 +3917,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7B682-F497-477F-9652-BDAE0F7CB605}">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AZ204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,7 +4010,7 @@
       <c r="N1" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="166" t="s">
+      <c r="O1" s="157" t="s">
         <v>96</v>
       </c>
       <c r="P1" s="105" t="s">
@@ -4043,7 +4043,7 @@
       <c r="Y1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="167" t="s">
+      <c r="Z1" s="158" t="s">
         <v>100</v>
       </c>
       <c r="AA1" s="105" t="s">
@@ -4055,7 +4055,7 @@
       <c r="AC1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="166" t="s">
+      <c r="AD1" s="157" t="s">
         <v>97</v>
       </c>
       <c r="AE1" s="103" t="s">
@@ -4154,7 +4154,7 @@
       <c r="M2" s="136"/>
       <c r="N2" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>31b67e90-3eb2-52dd-55b7-0ca3be7b6af2-002</v>
+        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
       </c>
       <c r="O2" s="112" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="Q2" s="112" t="str">
         <f ca="1">N2</f>
-        <v>31b67e90-3eb2-52dd-55b7-0ca3be7b6af2-002</v>
+        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
       </c>
       <c r="R2" s="102">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>RECEIVE</v>
       </c>
       <c r="W2" s="102" t="str">
-        <f>C2</f>
+        <f t="shared" ref="W2:W9" si="3">C2</f>
         <v>USD</v>
       </c>
       <c r="X2" s="102">
@@ -4203,72 +4203,72 @@
         <v>101</v>
       </c>
       <c r="AA2" s="102" t="str">
-        <f>"[UC2]"&amp;P2&amp;REPT(" ",28-LEN(P2))&amp;" ["&amp;TEXT(A2,"HH:MM")&amp;"]"</f>
+        <f t="shared" ref="AA2:AA9" si="4">"[UC2]"&amp;P2&amp;REPT(" ",28-LEN(P2))&amp;" ["&amp;TEXT(A2,"HH:MM")&amp;"]"</f>
         <v>[UC2]Cash Transfer                [08:00]</v>
       </c>
       <c r="AB2" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC2" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>SCB31B67E903EB252DD5</v>
+        <f t="shared" ref="AC2:AC9" ca="1" si="5">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
+        <v>SCBC7D3F86972DF636F7</v>
       </c>
       <c r="AD2" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE2" s="103" t="str">
-        <f>IF(RIGHT(Y2,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" ref="AE2:AE9" si="6">IF(RIGHT(Y2,1)="A","ACTUAL","FORECAST")</f>
         <v>FORECAST</v>
       </c>
       <c r="AI2" s="114" t="str">
-        <f ca="1">N2</f>
-        <v>31b67e90-3eb2-52dd-55b7-0ca3be7b6af2-002</v>
+        <f t="shared" ref="AI2:AI18" ca="1" si="7">N2</f>
+        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
       </c>
       <c r="AJ2" s="115" t="str">
-        <f>P2</f>
+        <f t="shared" ref="AJ2:AJ18" si="8">P2</f>
         <v>Cash Transfer</v>
       </c>
       <c r="AK2" s="114" t="str">
-        <f ca="1">Q2</f>
-        <v>31b67e90-3eb2-52dd-55b7-0ca3be7b6af2-002</v>
+        <f t="shared" ref="AK2:AK18" ca="1" si="9">Q2</f>
+        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
       </c>
       <c r="AL2" s="115">
-        <f>R2</f>
+        <f t="shared" ref="AL2:AL18" si="10">R2</f>
         <v>1</v>
       </c>
       <c r="AM2" s="116">
-        <f ca="1">S2</f>
+        <f t="shared" ref="AM2:AM18" ca="1" si="11">S2</f>
         <v>43726</v>
       </c>
       <c r="AN2" s="117" t="str">
-        <f ca="1">T2</f>
+        <f t="shared" ref="AN2:AN18" ca="1" si="12">T2</f>
         <v>ext-u2-0800-2e9c6-0002</v>
       </c>
       <c r="AO2" s="115" t="str">
-        <f>U2</f>
+        <f t="shared" ref="AO2:AO18" si="13">U2</f>
         <v>SCB</v>
       </c>
       <c r="AP2" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ2" s="118">
-        <f>G2</f>
+        <f t="shared" ref="AQ2:AQ18" si="14">G2</f>
         <v>0</v>
       </c>
       <c r="AR2" s="119" t="str">
-        <f>C2</f>
+        <f t="shared" ref="AR2:AR18" si="15">C2</f>
         <v>USD</v>
       </c>
       <c r="AS2" s="120">
-        <f>H2</f>
+        <f t="shared" ref="AS2:AS18" si="16">H2</f>
         <v>0</v>
       </c>
       <c r="AT2" s="118">
-        <f>D2*G2</f>
+        <f t="shared" ref="AT2:AT18" si="17">D2*G2</f>
         <v>0</v>
       </c>
       <c r="AV2" s="115" t="str">
-        <f>Y2</f>
+        <f t="shared" ref="AV2:AV18" si="18">Y2</f>
         <v>CASHTX-F</v>
       </c>
       <c r="AW2" s="116">
@@ -4276,18 +4276,18 @@
         <v>43726</v>
       </c>
       <c r="AX2" s="115" t="str">
-        <f t="shared" ref="AX2:AX9" si="3">AA2</f>
+        <f t="shared" ref="AX2:AX9" si="19">AA2</f>
         <v>[UC2]Cash Transfer                [08:00]</v>
       </c>
       <c r="AY2" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ2" s="114" t="str">
-        <f t="shared" ref="AZ2:AZ9" ca="1" si="4">AC2</f>
-        <v>SCB31B67E903EB252DD5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AZ2:AZ9" ca="1" si="20">AC2</f>
+        <v>SCBC7D3F86972DF636F7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="121">
         <f>Instructions!A4</f>
         <v>0.34027777777777773</v>
@@ -4307,7 +4307,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="103">
-        <f t="shared" ref="F3:F18" si="5">IF(E3="RECEIVE",D3,0-D3)</f>
+        <f t="shared" ref="F3:F18" si="21">IF(E3="RECEIVE",D3,0-D3)</f>
         <v>-5000</v>
       </c>
       <c r="G3" s="103">
@@ -4331,11 +4331,11 @@
       </c>
       <c r="M3" s="136"/>
       <c r="N3" s="112" t="str">
-        <f t="shared" ref="N3:N9" ca="1" si="6">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>20db6aec-77de-a4fc-8de3-6ea910bd5cff-003</v>
+        <f t="shared" ref="N3:N9" ca="1" si="22">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
+        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
       </c>
       <c r="O3" s="112" t="str">
-        <f t="shared" ref="O3:O18" si="7">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
+        <f t="shared" ref="O3:O18" si="23">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
         <v>USD.LOCKFXF.SCB00000</v>
       </c>
       <c r="P3" s="102" t="str">
@@ -4343,14 +4343,14 @@
         <v>FX Lock In</v>
       </c>
       <c r="Q3" s="102" t="str">
-        <f t="shared" ref="Q3:Q8" ca="1" si="8">N3</f>
-        <v>20db6aec-77de-a4fc-8de3-6ea910bd5cff-003</v>
+        <f t="shared" ref="Q3:Q8" ca="1" si="24">N3</f>
+        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
       </c>
       <c r="R3" s="102">
         <v>1</v>
       </c>
       <c r="S3" s="113">
-        <f t="shared" ref="S3:S9" ca="1" si="9">TODAY()</f>
+        <f t="shared" ref="S3:S9" ca="1" si="25">TODAY()</f>
         <v>43726</v>
       </c>
       <c r="T3" s="101" t="str">
@@ -4358,7 +4358,7 @@
         <v>ext-u2-0810-2e9c6-0003</v>
       </c>
       <c r="U3" s="102" t="str">
-        <f t="shared" ref="U3:U18" si="10">J3</f>
+        <f t="shared" ref="U3:U18" si="26">J3</f>
         <v>SCB</v>
       </c>
       <c r="V3" s="112" t="str">
@@ -4366,100 +4366,100 @@
         <v>-</v>
       </c>
       <c r="W3" s="102" t="str">
-        <f>C3</f>
+        <f t="shared" si="3"/>
         <v>USD</v>
       </c>
       <c r="X3" s="102">
-        <f t="shared" ref="X3:X18" si="11">F3</f>
+        <f t="shared" ref="X3:X18" si="27">F3</f>
         <v>-5000</v>
       </c>
       <c r="Y3" s="102" t="str">
-        <f t="shared" ref="Y3:Y18" si="12">L3&amp;"-"&amp;LEFT(K3,1)</f>
+        <f t="shared" ref="Y3:Y18" si="28">L3&amp;"-"&amp;LEFT(K3,1)</f>
         <v>LOCKFX-F</v>
       </c>
       <c r="AA3" s="102" t="str">
-        <f>"[UC2]"&amp;P3&amp;REPT(" ",28-LEN(P3))&amp;" ["&amp;TEXT(A3,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]FX Lock In                   [08:10]</v>
       </c>
       <c r="AB3" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC3" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U3&amp;SUBSTITUTE(N3,"-",""),20))</f>
-        <v>SCB20DB6AEC77DEA4FC8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCB75DFA45E994924479</v>
       </c>
       <c r="AD3" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE3" s="103" t="str">
-        <f>IF(RIGHT(Y3,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI3" s="114" t="str">
-        <f ca="1">N3</f>
-        <v>20db6aec-77de-a4fc-8de3-6ea910bd5cff-003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
       </c>
       <c r="AJ3" s="115" t="str">
-        <f>P3</f>
+        <f t="shared" si="8"/>
         <v>FX Lock In</v>
       </c>
       <c r="AK3" s="114" t="str">
-        <f ca="1">Q3</f>
-        <v>20db6aec-77de-a4fc-8de3-6ea910bd5cff-003</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
       </c>
       <c r="AL3" s="115">
-        <f>R3</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM3" s="116">
-        <f ca="1">S3</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN3" s="117" t="str">
-        <f ca="1">T3</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0810-2e9c6-0003</v>
       </c>
       <c r="AO3" s="115" t="str">
-        <f>U3</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP3" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ3" s="118">
-        <f>G3</f>
+        <f t="shared" si="14"/>
         <v>84.754599999999996</v>
       </c>
       <c r="AR3" s="119" t="str">
-        <f>C3</f>
+        <f t="shared" si="15"/>
         <v>USD</v>
       </c>
       <c r="AS3" s="120" t="str">
-        <f>H3</f>
+        <f t="shared" si="16"/>
         <v>BDT</v>
       </c>
       <c r="AT3" s="118">
-        <f>D3*G3</f>
+        <f t="shared" si="17"/>
         <v>423773</v>
       </c>
       <c r="AV3" s="115" t="str">
-        <f>Y3</f>
+        <f t="shared" si="18"/>
         <v>LOCKFX-F</v>
       </c>
       <c r="AW3" s="116">
-        <f t="shared" ref="AW3:AW9" ca="1" si="13">AM3</f>
+        <f t="shared" ref="AW3:AW9" ca="1" si="29">AM3</f>
         <v>43726</v>
       </c>
       <c r="AX3" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]FX Lock In                   [08:10]</v>
       </c>
       <c r="AY3" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ3" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCB20DB6AEC77DEA4FC8</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCB75DFA45E994924479</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
@@ -4482,7 +4482,7 @@
         <v>73</v>
       </c>
       <c r="F4" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-275132.45</v>
       </c>
       <c r="G4" s="102">
@@ -4503,11 +4503,11 @@
       </c>
       <c r="M4" s="136"/>
       <c r="N4" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>b6000929-5d6a-4271-7015-2776b3638cc2-004</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
       </c>
       <c r="O4" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTF.SCB000</v>
       </c>
       <c r="P4" s="102" t="str">
@@ -4515,14 +4515,14 @@
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q4" s="102" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>b6000929-5d6a-4271-7015-2776b3638cc2-004</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
       </c>
       <c r="R4" s="102">
         <v>1</v>
       </c>
       <c r="S4" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T4" s="101" t="str">
@@ -4530,7 +4530,7 @@
         <v>ext-u2-0840-2e9c6-0004</v>
       </c>
       <c r="U4" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V4" s="112" t="str">
@@ -4538,100 +4538,100 @@
         <v>PAY</v>
       </c>
       <c r="W4" s="102" t="str">
-        <f>C4</f>
+        <f t="shared" si="3"/>
         <v>BDT</v>
       </c>
       <c r="X4" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-275132.45</v>
       </c>
       <c r="Y4" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AA4" s="102" t="str">
-        <f>"[UC2]"&amp;P4&amp;REPT(" ",28-LEN(P4))&amp;" ["&amp;TEXT(A4,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AB4" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC4" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U4&amp;SUBSTITUTE(N4,"-",""),20))</f>
-        <v>SCBB60009295D6A42717</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCB7D34FB191F39102A7</v>
       </c>
       <c r="AD4" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE4" s="103" t="str">
-        <f>IF(RIGHT(Y4,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI4" s="114" t="str">
-        <f ca="1">N4</f>
-        <v>b6000929-5d6a-4271-7015-2776b3638cc2-004</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
       </c>
       <c r="AJ4" s="115" t="str">
-        <f>P4</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK4" s="114" t="str">
-        <f ca="1">Q4</f>
-        <v>b6000929-5d6a-4271-7015-2776b3638cc2-004</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
       </c>
       <c r="AL4" s="115">
-        <f>R4</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM4" s="116">
-        <f ca="1">S4</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN4" s="117" t="str">
-        <f ca="1">T4</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0840-2e9c6-0004</v>
       </c>
       <c r="AO4" s="115" t="str">
-        <f>U4</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP4" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ4" s="118">
-        <f>G4</f>
+        <f t="shared" si="14"/>
         <v>84.761197999999993</v>
       </c>
       <c r="AR4" s="119" t="str">
-        <f>C4</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS4" s="120">
-        <f>H4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT4" s="118">
-        <f>D4*G4</f>
+        <f t="shared" si="17"/>
         <v>23320556.070675097</v>
       </c>
       <c r="AV4" s="115" t="str">
-        <f>Y4</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AW4" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX4" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AY4" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ4" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCBB60009295D6A42717</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCB7D34FB191F39102A7</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
@@ -4654,7 +4654,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-112564.67</v>
       </c>
       <c r="G5" s="102">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="M5" s="136"/>
       <c r="N5" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>2ec8c447-7a98-8e51-6f3a-e3768dfe6b9a-005</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
       </c>
       <c r="O5" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTF.SCB000</v>
       </c>
       <c r="P5" s="102" t="str">
@@ -4686,14 +4686,14 @@
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q5" s="102" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>2ec8c447-7a98-8e51-6f3a-e3768dfe6b9a-005</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
       </c>
       <c r="R5" s="102">
         <v>1</v>
       </c>
       <c r="S5" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T5" s="101" t="str">
@@ -4701,7 +4701,7 @@
         <v>ext-u2-0840-2e9c6-0005</v>
       </c>
       <c r="U5" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V5" s="112" t="str">
@@ -4709,100 +4709,100 @@
         <v>PAY</v>
       </c>
       <c r="W5" s="102" t="str">
-        <f>C5</f>
+        <f t="shared" si="3"/>
         <v>BDT</v>
       </c>
       <c r="X5" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-112564.67</v>
       </c>
       <c r="Y5" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AA5" s="102" t="str">
-        <f>"[UC2]"&amp;P5&amp;REPT(" ",28-LEN(P5))&amp;" ["&amp;TEXT(A5,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AB5" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC5" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U5&amp;SUBSTITUTE(N5,"-",""),20))</f>
-        <v>SCB2EC8C4477A988E516</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCBDD458733313577983</v>
       </c>
       <c r="AD5" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE5" s="103" t="str">
-        <f>IF(RIGHT(Y5,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI5" s="114" t="str">
-        <f ca="1">N5</f>
-        <v>2ec8c447-7a98-8e51-6f3a-e3768dfe6b9a-005</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
       </c>
       <c r="AJ5" s="115" t="str">
-        <f>P5</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK5" s="114" t="str">
-        <f ca="1">Q5</f>
-        <v>2ec8c447-7a98-8e51-6f3a-e3768dfe6b9a-005</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
       </c>
       <c r="AL5" s="115">
-        <f>R5</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM5" s="116">
-        <f ca="1">S5</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN5" s="117" t="str">
-        <f ca="1">T5</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0840-2e9c6-0005</v>
       </c>
       <c r="AO5" s="115" t="str">
-        <f>U5</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP5" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ5" s="118">
-        <f>G5</f>
+        <f t="shared" si="14"/>
         <v>84.761493999999999</v>
       </c>
       <c r="AR5" s="119" t="str">
-        <f>C5</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS5" s="120">
-        <f>H5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT5" s="118">
-        <f>D5*G5</f>
+        <f t="shared" si="17"/>
         <v>9541149.60081698</v>
       </c>
       <c r="AV5" s="115" t="str">
-        <f>Y5</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AW5" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX5" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AY5" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ5" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCB2EC8C4477A988E516</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCBDD458733313577983</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-423000</v>
       </c>
       <c r="I6" s="103" t="s">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="M6" s="136"/>
       <c r="N6" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>c4b19f36-64a3-6739-4156-aee53397365d-006</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
       </c>
       <c r="O6" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.LOCKINSTF.SCB000</v>
       </c>
       <c r="P6" s="102" t="str">
@@ -4855,13 +4855,13 @@
       </c>
       <c r="Q6" s="102" t="str">
         <f ca="1">N6</f>
-        <v>c4b19f36-64a3-6739-4156-aee53397365d-006</v>
+        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
       </c>
       <c r="R6" s="102">
         <v>1</v>
       </c>
       <c r="S6" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T6" s="101" t="str">
@@ -4869,7 +4869,7 @@
         <v>ext-u2-0900-2e9c6-0006</v>
       </c>
       <c r="U6" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V6" s="112" t="str">
@@ -4877,100 +4877,100 @@
         <v>PAY</v>
       </c>
       <c r="W6" s="102" t="str">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>BDT</v>
       </c>
       <c r="X6" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-423000</v>
       </c>
       <c r="Y6" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>LOCKINST-F</v>
       </c>
       <c r="AA6" s="102" t="str">
-        <f>"[UC2]"&amp;P6&amp;REPT(" ",28-LEN(P6))&amp;" ["&amp;TEXT(A6,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]Lock In Instruction          [09:00]</v>
       </c>
       <c r="AB6" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC6" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U6&amp;SUBSTITUTE(N6,"-",""),20))</f>
-        <v>SCBC4B19F3664A367394</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCB2C16297D5A83472E3</v>
       </c>
       <c r="AD6" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE6" s="103" t="str">
-        <f>IF(RIGHT(Y6,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI6" s="114" t="str">
-        <f ca="1">N6</f>
-        <v>c4b19f36-64a3-6739-4156-aee53397365d-006</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
       </c>
       <c r="AJ6" s="115" t="str">
-        <f>P6</f>
+        <f t="shared" si="8"/>
         <v>Lock In Instruction</v>
       </c>
       <c r="AK6" s="114" t="str">
-        <f ca="1">Q6</f>
-        <v>c4b19f36-64a3-6739-4156-aee53397365d-006</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
       </c>
       <c r="AL6" s="115">
-        <f>R6</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM6" s="116">
-        <f ca="1">S6</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN6" s="117" t="str">
-        <f ca="1">T6</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0900-2e9c6-0006</v>
       </c>
       <c r="AO6" s="115" t="str">
-        <f>U6</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP6" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ6" s="118">
-        <f>G6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR6" s="119" t="str">
-        <f>C6</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS6" s="120">
-        <f>H6</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT6" s="118">
-        <f>D6*G6</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV6" s="115" t="str">
-        <f>Y6</f>
+        <f t="shared" si="18"/>
         <v>LOCKINST-F</v>
       </c>
       <c r="AW6" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX6" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]Lock In Instruction          [09:00]</v>
       </c>
       <c r="AY6" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ6" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCBC4B19F3664A367394</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCB2C16297D5A83472E3</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -4993,7 +4993,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-425132.45</v>
       </c>
       <c r="G7" s="102">
@@ -5013,11 +5013,11 @@
       </c>
       <c r="M7" s="136"/>
       <c r="N7" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>34d67552-80f9-166c-133c-ff5ff1320961-007</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
       </c>
       <c r="O7" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTF.SCB000</v>
       </c>
       <c r="P7" s="102" t="str">
@@ -5025,14 +5025,14 @@
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q7" s="102" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>34d67552-80f9-166c-133c-ff5ff1320961-007</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
       </c>
       <c r="R7" s="102">
         <v>1</v>
       </c>
       <c r="S7" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T7" s="101" t="str">
@@ -5040,7 +5040,7 @@
         <v>ext-u2-0915-2e9c6-0007</v>
       </c>
       <c r="U7" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V7" s="112" t="str">
@@ -5048,100 +5048,100 @@
         <v>PAY</v>
       </c>
       <c r="W7" s="102" t="str">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>BDT</v>
       </c>
       <c r="X7" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-425132.45</v>
       </c>
       <c r="Y7" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AA7" s="102" t="str">
-        <f>"[UC2]"&amp;P7&amp;REPT(" ",28-LEN(P7))&amp;" ["&amp;TEXT(A7,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]Customer Payment Instruction [09:15]</v>
       </c>
       <c r="AB7" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC7" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U7&amp;SUBSTITUTE(N7,"-",""),20))</f>
-        <v>SCB34D6755280F9166C1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCBF042F27A3D5806B34</v>
       </c>
       <c r="AD7" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE7" s="103" t="str">
-        <f>IF(RIGHT(Y7,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI7" s="114" t="str">
-        <f ca="1">N7</f>
-        <v>34d67552-80f9-166c-133c-ff5ff1320961-007</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
       </c>
       <c r="AJ7" s="115" t="str">
-        <f>P7</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK7" s="114" t="str">
-        <f ca="1">Q7</f>
-        <v>34d67552-80f9-166c-133c-ff5ff1320961-007</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
       </c>
       <c r="AL7" s="115">
-        <f>R7</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM7" s="116">
-        <f ca="1">S7</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN7" s="117" t="str">
-        <f ca="1">T7</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0915-2e9c6-0007</v>
       </c>
       <c r="AO7" s="115" t="str">
-        <f>U7</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP7" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ7" s="118">
-        <f>G7</f>
+        <f t="shared" si="14"/>
         <v>84.761571000000004</v>
       </c>
       <c r="AR7" s="119" t="str">
-        <f>C7</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS7" s="120">
-        <f>H7</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT7" s="118">
-        <f>D7*G7</f>
+        <f t="shared" si="17"/>
         <v>36034894.345078953</v>
       </c>
       <c r="AV7" s="115" t="str">
-        <f>Y7</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AW7" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX7" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]Customer Payment Instruction [09:15]</v>
       </c>
       <c r="AY7" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ7" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCB34D6755280F9166C1</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCBF042F27A3D5806B34</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-132564.67000000001</v>
       </c>
       <c r="G8" s="102">
@@ -5184,11 +5184,11 @@
       </c>
       <c r="M8" s="136"/>
       <c r="N8" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>b9f2504e-7d9e-49ad-5c81-faf27964a16e-008</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
       </c>
       <c r="O8" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTF.SCB000</v>
       </c>
       <c r="P8" s="102" t="str">
@@ -5196,14 +5196,14 @@
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q8" s="102" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>b9f2504e-7d9e-49ad-5c81-faf27964a16e-008</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
       </c>
       <c r="R8" s="102">
         <v>1</v>
       </c>
       <c r="S8" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T8" s="101" t="str">
@@ -5211,7 +5211,7 @@
         <v>ext-u2-0915-2e9c6-0008</v>
       </c>
       <c r="U8" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V8" s="112" t="str">
@@ -5219,103 +5219,103 @@
         <v>PAY</v>
       </c>
       <c r="W8" s="102" t="str">
-        <f>C8</f>
+        <f t="shared" si="3"/>
         <v>BDT</v>
       </c>
       <c r="X8" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-132564.67000000001</v>
       </c>
       <c r="Y8" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AA8" s="102" t="str">
-        <f>"[UC2]"&amp;P8&amp;REPT(" ",28-LEN(P8))&amp;" ["&amp;TEXT(A8,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]Customer Payment Instruction [09:15]</v>
       </c>
       <c r="AB8" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC8" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U8&amp;SUBSTITUTE(N8,"-",""),20))</f>
-        <v>SCBB9F2504E7D9E49AD5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCB25F02E6B72E9578A3</v>
       </c>
       <c r="AD8" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE8" s="103" t="str">
-        <f>IF(RIGHT(Y8,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI8" s="114" t="str">
-        <f ca="1">N8</f>
-        <v>b9f2504e-7d9e-49ad-5c81-faf27964a16e-008</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
       </c>
       <c r="AJ8" s="115" t="str">
-        <f>P8</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK8" s="114" t="str">
-        <f ca="1">Q8</f>
-        <v>b9f2504e-7d9e-49ad-5c81-faf27964a16e-008</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
       </c>
       <c r="AL8" s="115">
-        <f>R8</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM8" s="116">
-        <f ca="1">S8</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN8" s="117" t="str">
-        <f ca="1">T8</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0915-2e9c6-0008</v>
       </c>
       <c r="AO8" s="115" t="str">
-        <f>U8</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP8" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ8" s="118">
-        <f>G8</f>
+        <f t="shared" si="14"/>
         <v>84.761493999999999</v>
       </c>
       <c r="AR8" s="119" t="str">
-        <f>C8</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS8" s="120">
-        <f>H8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT8" s="118">
-        <f>D8*G8</f>
+        <f t="shared" si="17"/>
         <v>11236379.480816981</v>
       </c>
       <c r="AV8" s="115" t="str">
-        <f>Y8</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-F</v>
       </c>
       <c r="AW8" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX8" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]Customer Payment Instruction [09:15]</v>
       </c>
       <c r="AY8" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ8" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCBB9F2504E7D9E49AD5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="20"/>
+        <v>SCB25F02E6B72E9578A3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="127">
         <v>0.38541666666666669</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-11500</v>
       </c>
       <c r="G9" s="102">
@@ -5358,11 +5358,11 @@
       </c>
       <c r="M9" s="136"/>
       <c r="N9" s="112" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>f998fe57-4dc1-5c8f-9111-d1d9932f4159-009</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
       </c>
       <c r="O9" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>USD.FXF.SCB000000000</v>
       </c>
       <c r="P9" s="102" t="str">
@@ -5371,13 +5371,13 @@
       </c>
       <c r="Q9" s="102" t="str">
         <f ca="1">N9</f>
-        <v>f998fe57-4dc1-5c8f-9111-d1d9932f4159-009</v>
+        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
       </c>
       <c r="R9" s="102">
         <v>1</v>
       </c>
       <c r="S9" s="113">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="25"/>
         <v>43726</v>
       </c>
       <c r="T9" s="101" t="str">
@@ -5385,7 +5385,7 @@
         <v>ext-u2-0915-2e9c6-0009</v>
       </c>
       <c r="U9" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V9" s="112" t="str">
@@ -5393,100 +5393,100 @@
         <v>-</v>
       </c>
       <c r="W9" s="102" t="str">
-        <f>C9</f>
+        <f t="shared" si="3"/>
         <v>USD</v>
       </c>
       <c r="X9" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-11500</v>
       </c>
       <c r="Y9" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>FX-F</v>
       </c>
       <c r="AA9" s="102" t="str">
-        <f>"[UC2]"&amp;P9&amp;REPT(" ",28-LEN(P9))&amp;" ["&amp;TEXT(A9,"HH:MM")&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[UC2]FX Trade                     [09:15]</v>
       </c>
       <c r="AB9" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC9" s="112" t="str">
-        <f ca="1">UPPER(LEFT(U9&amp;SUBSTITUTE(N9,"-",""),20))</f>
-        <v>SCBF998FE574DC15C8F9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>SCBDAFFBE42256D45635</v>
       </c>
       <c r="AD9" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE9" s="103" t="str">
-        <f>IF(RIGHT(Y9,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="6"/>
         <v>FORECAST</v>
       </c>
       <c r="AI9" s="114" t="str">
-        <f ca="1">N9</f>
-        <v>f998fe57-4dc1-5c8f-9111-d1d9932f4159-009</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
       </c>
       <c r="AJ9" s="115" t="str">
-        <f>P9</f>
+        <f t="shared" si="8"/>
         <v>FX Trade</v>
       </c>
       <c r="AK9" s="114" t="str">
-        <f ca="1">Q9</f>
-        <v>f998fe57-4dc1-5c8f-9111-d1d9932f4159-009</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
       </c>
       <c r="AL9" s="115">
-        <f>R9</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM9" s="116">
-        <f ca="1">S9</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN9" s="117" t="str">
-        <f ca="1">T9</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0915-2e9c6-0009</v>
       </c>
       <c r="AO9" s="115" t="str">
-        <f>U9</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP9" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ9" s="118">
-        <f>G9</f>
+        <f t="shared" si="14"/>
         <v>84.765000000000001</v>
       </c>
       <c r="AR9" s="119" t="str">
-        <f>C9</f>
+        <f t="shared" si="15"/>
         <v>USD</v>
       </c>
       <c r="AS9" s="120" t="str">
-        <f>H9</f>
+        <f t="shared" si="16"/>
         <v>BDT</v>
       </c>
       <c r="AT9" s="118">
-        <f>D9*G9</f>
+        <f t="shared" si="17"/>
         <v>974797.5</v>
       </c>
       <c r="AV9" s="115" t="str">
-        <f>Y9</f>
+        <f t="shared" si="18"/>
         <v>FX-F</v>
       </c>
       <c r="AW9" s="116">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="29"/>
         <v>43726</v>
       </c>
       <c r="AX9" s="115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>[UC2]FX Trade                     [09:15]</v>
       </c>
       <c r="AY9" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ9" s="114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SCBF998FE574DC15C8F9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>SCBDAFFBE42256D45635</v>
       </c>
     </row>
     <row r="10" spans="1:52" s="140" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5503,7 +5503,7 @@
       <c r="M10" s="143"/>
       <c r="O10" s="112"/>
       <c r="U10" s="140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X10" s="102"/>
@@ -5513,70 +5513,70 @@
       <c r="AD10" s="103"/>
       <c r="AE10" s="103"/>
       <c r="AI10" s="144">
-        <f>N10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="145">
-        <f>P10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK10" s="144">
-        <f>Q10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL10" s="145">
-        <f>R10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM10" s="146">
-        <f>S10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN10" s="147">
-        <f>T10</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO10" s="145">
-        <f>U10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP10" s="145" t="s">
         <v>78</v>
       </c>
       <c r="AQ10" s="148">
-        <f>G10</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR10" s="150">
-        <f>C10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AS10" s="149">
-        <f>H10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT10" s="148">
-        <f>D10*G10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU10" s="145"/>
       <c r="AV10" s="145">
-        <f>Y10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AW10" s="146">
-        <f t="shared" ref="AW10:AW18" si="14">AM10</f>
+        <f t="shared" ref="AW10:AW18" si="30">AM10</f>
         <v>0</v>
       </c>
       <c r="AX10" s="145">
-        <f t="shared" ref="AX10:AX18" si="15">AA10</f>
+        <f t="shared" ref="AX10:AX18" si="31">AA10</f>
         <v>0</v>
       </c>
       <c r="AY10" s="145" t="s">
         <v>79</v>
       </c>
       <c r="AZ10" s="144">
-        <f t="shared" ref="AZ10:AZ18" si="16">AC10</f>
+        <f t="shared" ref="AZ10:AZ18" si="32">AC10</f>
         <v>0</v>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
         <v>70</v>
       </c>
       <c r="F11" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>50000</v>
       </c>
       <c r="G11" s="112"/>
@@ -5617,19 +5617,19 @@
       <c r="M11" s="136"/>
       <c r="N11" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>96df3ef9-4844-7f46-0baa-212ab10d942d-011</v>
+        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
       </c>
       <c r="O11" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>USD.CASHTXA.SCB00000</v>
       </c>
       <c r="P11" s="102" t="str">
-        <f t="shared" ref="P11:P18" si="17">B11</f>
+        <f t="shared" ref="P11:P18" si="33">B11</f>
         <v>Cash Transfer</v>
       </c>
       <c r="Q11" s="112" t="str">
         <f ca="1">N11</f>
-        <v>96df3ef9-4844-7f46-0baa-212ab10d942d-011</v>
+        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
       </c>
       <c r="R11" s="102">
         <v>1</v>
@@ -5639,31 +5639,31 @@
         <v>43726</v>
       </c>
       <c r="T11" s="101" t="str">
-        <f t="shared" ref="T11:T18" ca="1" si="18">"ext-u2-"&amp;TEXT(A11,"HHMM-")&amp;LOWER(DEC2HEX(TEXT(TODAY(),"YmMD")))&amp;"-"&amp;TEXT(ROW(),"0000")</f>
+        <f t="shared" ref="T11:T18" ca="1" si="34">"ext-u2-"&amp;TEXT(A11,"HHMM-")&amp;LOWER(DEC2HEX(TEXT(TODAY(),"YmMD")))&amp;"-"&amp;TEXT(ROW(),"0000")</f>
         <v>ext-u2-0800-2e9c6-0011</v>
       </c>
       <c r="U11" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V11" s="112" t="str">
-        <f t="shared" ref="V11:V18" si="19">E11</f>
+        <f t="shared" ref="V11:V18" si="35">E11</f>
         <v>RECEIVE</v>
       </c>
       <c r="W11" s="102" t="str">
-        <f>C11</f>
+        <f t="shared" ref="W11:W18" si="36">C11</f>
         <v>USD</v>
       </c>
       <c r="X11" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>50000</v>
       </c>
       <c r="Y11" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AA11" s="102" t="str">
-        <f t="shared" ref="AA11:AA18" si="20">"[UC2]"&amp;P11&amp;REPT(" ",28-LEN(P11))&amp;" ["&amp;TEXT(A11,"HH:MM")&amp;"]"</f>
+        <f t="shared" ref="AA11:AA18" si="37">"[UC2]"&amp;P11&amp;REPT(" ",28-LEN(P11))&amp;" ["&amp;TEXT(A11,"HH:MM")&amp;"]"</f>
         <v>[UC2]Cash Transfer                [08:00]</v>
       </c>
       <c r="AB11" s="102" t="s">
@@ -5671,83 +5671,83 @@
       </c>
       <c r="AC11" s="112" t="str">
         <f ca="1">UPPER(LEFT(U11&amp;SUBSTITUTE(N11,"-",""),20))</f>
-        <v>SCB96DF3EF948447F460</v>
+        <v>SCB1F928E08556096117</v>
       </c>
       <c r="AD11" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE11" s="103" t="str">
-        <f>IF(RIGHT(Y11,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" ref="AE11:AE18" si="38">IF(RIGHT(Y11,1)="A","ACTUAL","FORECAST")</f>
         <v>ACTUAL</v>
       </c>
       <c r="AI11" s="114" t="str">
-        <f ca="1">N11</f>
-        <v>96df3ef9-4844-7f46-0baa-212ab10d942d-011</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
       </c>
       <c r="AJ11" s="115" t="str">
-        <f>P11</f>
+        <f t="shared" si="8"/>
         <v>Cash Transfer</v>
       </c>
       <c r="AK11" s="114" t="str">
-        <f ca="1">Q11</f>
-        <v>96df3ef9-4844-7f46-0baa-212ab10d942d-011</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
       </c>
       <c r="AL11" s="115">
-        <f>R11</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM11" s="116">
-        <f ca="1">S11</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN11" s="117" t="str">
-        <f ca="1">T11</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0800-2e9c6-0011</v>
       </c>
       <c r="AO11" s="115" t="str">
-        <f>U11</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP11" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ11" s="118">
-        <f>G11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR11" s="119" t="str">
-        <f>C11</f>
+        <f t="shared" si="15"/>
         <v>USD</v>
       </c>
       <c r="AS11" s="120">
-        <f>H11</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT11" s="118">
-        <f>D11*G11</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV11" s="115" t="str">
-        <f>Y11</f>
+        <f t="shared" si="18"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AW11" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX11" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Cash Transfer                [08:00]</v>
       </c>
       <c r="AY11" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ11" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB96DF3EF948447F460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="32"/>
+        <v>SCB1F928E08556096117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="121">
         <v>0.34027777777777773</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>71</v>
       </c>
       <c r="F12" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-5000</v>
       </c>
       <c r="G12" s="103">
@@ -5787,135 +5787,135 @@
       </c>
       <c r="M12" s="136"/>
       <c r="N12" s="112" t="str">
-        <f t="shared" ref="N12:N18" ca="1" si="21">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>159fb856-90a1-7f76-486d-486dfca58e24-012</v>
+        <f t="shared" ref="N12:N18" ca="1" si="39">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
+        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
       </c>
       <c r="O12" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>USD.LOCKFXA.SCB00000</v>
       </c>
       <c r="P12" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>FX Lock In</v>
       </c>
       <c r="Q12" s="102" t="str">
-        <f t="shared" ref="Q12:Q18" ca="1" si="22">N12</f>
-        <v>159fb856-90a1-7f76-486d-486dfca58e24-012</v>
+        <f t="shared" ref="Q12:Q18" ca="1" si="40">N12</f>
+        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
       </c>
       <c r="R12" s="102">
         <v>1</v>
       </c>
       <c r="S12" s="113">
-        <f t="shared" ref="S12:S18" ca="1" si="23">TODAY()</f>
+        <f t="shared" ref="S12:S18" ca="1" si="41">TODAY()</f>
         <v>43726</v>
       </c>
       <c r="T12" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0810-2e9c6-0012</v>
       </c>
       <c r="U12" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V12" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="W12" s="102" t="str">
-        <f>C12</f>
+        <f t="shared" si="36"/>
         <v>USD</v>
       </c>
       <c r="X12" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-5000</v>
       </c>
       <c r="Y12" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>LOCKFX-A</v>
       </c>
       <c r="AA12" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]FX Lock In                   [08:10]</v>
       </c>
       <c r="AB12" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC12" s="112" t="str">
-        <f t="shared" ref="AC12:AC18" ca="1" si="24">UPPER(LEFT(U12&amp;SUBSTITUTE(N12,"-",""),20))</f>
-        <v>SCB159FB85690A17F764</v>
+        <f t="shared" ref="AC12:AC18" ca="1" si="42">UPPER(LEFT(U12&amp;SUBSTITUTE(N12,"-",""),20))</f>
+        <v>SCB7C11830B53469E256</v>
       </c>
       <c r="AD12" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE12" s="103" t="str">
-        <f>IF(RIGHT(Y12,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI12" s="114" t="str">
-        <f ca="1">N12</f>
-        <v>159fb856-90a1-7f76-486d-486dfca58e24-012</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
       </c>
       <c r="AJ12" s="115" t="str">
-        <f>P12</f>
+        <f t="shared" si="8"/>
         <v>FX Lock In</v>
       </c>
       <c r="AK12" s="114" t="str">
-        <f ca="1">Q12</f>
-        <v>159fb856-90a1-7f76-486d-486dfca58e24-012</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
       </c>
       <c r="AL12" s="115">
-        <f>R12</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM12" s="116">
-        <f ca="1">S12</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN12" s="117" t="str">
-        <f ca="1">T12</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0810-2e9c6-0012</v>
       </c>
       <c r="AO12" s="115" t="str">
-        <f>U12</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP12" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ12" s="118">
-        <f>G12</f>
+        <f t="shared" si="14"/>
         <v>84.754599999999996</v>
       </c>
       <c r="AR12" s="119" t="str">
-        <f>C12</f>
+        <f t="shared" si="15"/>
         <v>USD</v>
       </c>
       <c r="AS12" s="120" t="str">
-        <f>H12</f>
+        <f t="shared" si="16"/>
         <v>BDT</v>
       </c>
       <c r="AT12" s="118">
-        <f>D12*G12</f>
+        <f t="shared" si="17"/>
         <v>423773</v>
       </c>
       <c r="AV12" s="115" t="str">
-        <f>Y12</f>
+        <f t="shared" si="18"/>
         <v>LOCKFX-A</v>
       </c>
       <c r="AW12" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX12" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]FX Lock In                   [08:10]</v>
       </c>
       <c r="AY12" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ12" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB159FB85690A17F764</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCB7C11830B53469E256</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
         <v>73</v>
       </c>
       <c r="F13" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-275132.45</v>
       </c>
       <c r="G13" s="102">
@@ -5958,135 +5958,135 @@
       </c>
       <c r="M13" s="136"/>
       <c r="N13" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>feb7e49c-1191-4db2-41ae-31d92a1e93a1-013</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
       </c>
       <c r="O13" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CASHTXA.SCB00000</v>
       </c>
       <c r="P13" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q13" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>feb7e49c-1191-4db2-41ae-31d92a1e93a1-013</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
       </c>
       <c r="R13" s="102">
         <v>1</v>
       </c>
       <c r="S13" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T13" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0840-2e9c6-0013</v>
       </c>
       <c r="U13" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V13" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>PAY</v>
       </c>
       <c r="W13" s="102" t="str">
-        <f>C13</f>
+        <f t="shared" si="36"/>
         <v>BDT</v>
       </c>
       <c r="X13" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-275132.45</v>
       </c>
       <c r="Y13" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AA13" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AB13" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC13" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCBFEB7E49C11914DB24</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCBE127EC0F2E403B8B6</v>
       </c>
       <c r="AD13" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE13" s="103" t="str">
-        <f>IF(RIGHT(Y13,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI13" s="114" t="str">
-        <f ca="1">N13</f>
-        <v>feb7e49c-1191-4db2-41ae-31d92a1e93a1-013</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
       </c>
       <c r="AJ13" s="115" t="str">
-        <f>P13</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK13" s="114" t="str">
-        <f ca="1">Q13</f>
-        <v>feb7e49c-1191-4db2-41ae-31d92a1e93a1-013</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
       </c>
       <c r="AL13" s="115">
-        <f>R13</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM13" s="116">
-        <f ca="1">S13</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN13" s="117" t="str">
-        <f ca="1">T13</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0840-2e9c6-0013</v>
       </c>
       <c r="AO13" s="115" t="str">
-        <f>U13</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP13" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ13" s="118">
-        <f>G13</f>
+        <f t="shared" si="14"/>
         <v>84.761197999999993</v>
       </c>
       <c r="AR13" s="119" t="str">
-        <f>C13</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS13" s="120" t="str">
-        <f>H13</f>
+        <f t="shared" si="16"/>
         <v>USD</v>
       </c>
       <c r="AT13" s="118">
-        <f>D13*G13</f>
+        <f t="shared" si="17"/>
         <v>23320556.070675097</v>
       </c>
       <c r="AV13" s="115" t="str">
-        <f>Y13</f>
+        <f t="shared" si="18"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AW13" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX13" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AY13" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ13" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCBFEB7E49C11914DB24</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCBE127EC0F2E403B8B6</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-112564.67</v>
       </c>
       <c r="G14" s="102">
@@ -6129,135 +6129,135 @@
       </c>
       <c r="M14" s="136"/>
       <c r="N14" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>fa407e68-9995-488d-4f68-0fd73a8f9aaf-014</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
       </c>
       <c r="O14" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CASHTXA.SCB00000</v>
       </c>
       <c r="P14" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q14" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>fa407e68-9995-488d-4f68-0fd73a8f9aaf-014</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
       </c>
       <c r="R14" s="102">
         <v>1</v>
       </c>
       <c r="S14" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T14" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0840-2e9c6-0014</v>
       </c>
       <c r="U14" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V14" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>PAY</v>
       </c>
       <c r="W14" s="102" t="str">
-        <f>C14</f>
+        <f t="shared" si="36"/>
         <v>BDT</v>
       </c>
       <c r="X14" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-112564.67</v>
       </c>
       <c r="Y14" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AA14" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AB14" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC14" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCBFA407E689995488D4</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCB7858D3655AD79A368</v>
       </c>
       <c r="AD14" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE14" s="103" t="str">
-        <f>IF(RIGHT(Y14,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI14" s="114" t="str">
-        <f ca="1">N14</f>
-        <v>fa407e68-9995-488d-4f68-0fd73a8f9aaf-014</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
       </c>
       <c r="AJ14" s="115" t="str">
-        <f>P14</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK14" s="114" t="str">
-        <f ca="1">Q14</f>
-        <v>fa407e68-9995-488d-4f68-0fd73a8f9aaf-014</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
       </c>
       <c r="AL14" s="115">
-        <f>R14</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM14" s="116">
-        <f ca="1">S14</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN14" s="117" t="str">
-        <f ca="1">T14</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0840-2e9c6-0014</v>
       </c>
       <c r="AO14" s="115" t="str">
-        <f>U14</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP14" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ14" s="118">
-        <f>G14</f>
+        <f t="shared" si="14"/>
         <v>84.761493999999999</v>
       </c>
       <c r="AR14" s="119" t="str">
-        <f>C14</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS14" s="120" t="str">
-        <f>H14</f>
+        <f t="shared" si="16"/>
         <v>USD</v>
       </c>
       <c r="AT14" s="118">
-        <f>D14*G14</f>
+        <f t="shared" si="17"/>
         <v>9541149.60081698</v>
       </c>
       <c r="AV14" s="115" t="str">
-        <f>Y14</f>
+        <f t="shared" si="18"/>
         <v>CASHTX-A</v>
       </c>
       <c r="AW14" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX14" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Customer Payment Instruction [08:40]</v>
       </c>
       <c r="AY14" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ14" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCBFA407E689995488D4</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCB7858D3655AD79A368</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-423000</v>
       </c>
       <c r="I15" s="103" t="s">
@@ -6294,135 +6294,135 @@
       </c>
       <c r="M15" s="136"/>
       <c r="N15" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>42e026b1-15a9-046f-138f-16997ad10004-015</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
       </c>
       <c r="O15" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.LOCKINSTA.SCB000</v>
       </c>
       <c r="P15" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>Lock In Instruction</v>
       </c>
       <c r="Q15" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>42e026b1-15a9-046f-138f-16997ad10004-015</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
       </c>
       <c r="R15" s="102">
         <v>1</v>
       </c>
       <c r="S15" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T15" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0900-2e9c6-0015</v>
       </c>
       <c r="U15" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V15" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>PAY</v>
       </c>
       <c r="W15" s="102" t="str">
-        <f>C15</f>
+        <f t="shared" si="36"/>
         <v>BDT</v>
       </c>
       <c r="X15" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-423000</v>
       </c>
       <c r="Y15" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>LOCKINST-A</v>
       </c>
       <c r="AA15" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]Lock In Instruction          [09:00]</v>
       </c>
       <c r="AB15" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC15" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCB42E026B115A9046F1</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCB9A6E53B513F9366C8</v>
       </c>
       <c r="AD15" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE15" s="103" t="str">
-        <f>IF(RIGHT(Y15,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI15" s="114" t="str">
-        <f ca="1">N15</f>
-        <v>42e026b1-15a9-046f-138f-16997ad10004-015</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
       </c>
       <c r="AJ15" s="115" t="str">
-        <f>P15</f>
+        <f t="shared" si="8"/>
         <v>Lock In Instruction</v>
       </c>
       <c r="AK15" s="114" t="str">
-        <f ca="1">Q15</f>
-        <v>42e026b1-15a9-046f-138f-16997ad10004-015</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
       </c>
       <c r="AL15" s="115">
-        <f>R15</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM15" s="116">
-        <f ca="1">S15</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN15" s="117" t="str">
-        <f ca="1">T15</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0900-2e9c6-0015</v>
       </c>
       <c r="AO15" s="115" t="str">
-        <f>U15</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP15" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ15" s="118">
-        <f>G15</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR15" s="119" t="str">
-        <f>C15</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS15" s="120">
-        <f>H15</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT15" s="118">
-        <f>D15*G15</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV15" s="115" t="str">
-        <f>Y15</f>
+        <f t="shared" si="18"/>
         <v>LOCKINST-A</v>
       </c>
       <c r="AW15" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX15" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Lock In Instruction          [09:00]</v>
       </c>
       <c r="AY15" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ15" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB42E026B115A9046F1</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCB9A6E53B513F9366C8</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-425132.45</v>
       </c>
       <c r="G16" s="102">
@@ -6465,135 +6465,135 @@
       </c>
       <c r="M16" s="136"/>
       <c r="N16" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>9645b781-6004-3818-9099-a02bb0758e48-016</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
       </c>
       <c r="O16" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTA.SCB000</v>
       </c>
       <c r="P16" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q16" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>9645b781-6004-3818-9099-a02bb0758e48-016</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
       </c>
       <c r="R16" s="102">
         <v>1</v>
       </c>
       <c r="S16" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T16" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0930-2e9c6-0016</v>
       </c>
       <c r="U16" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V16" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>PAY</v>
       </c>
       <c r="W16" s="102" t="str">
-        <f>C16</f>
+        <f t="shared" si="36"/>
         <v>BDT</v>
       </c>
       <c r="X16" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-425132.45</v>
       </c>
       <c r="Y16" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-A</v>
       </c>
       <c r="AA16" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]Customer Payment Instruction [09:30]</v>
       </c>
       <c r="AB16" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC16" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCB9645B781600438189</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCB750C143210B024203</v>
       </c>
       <c r="AD16" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE16" s="103" t="str">
-        <f>IF(RIGHT(Y16,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI16" s="114" t="str">
-        <f ca="1">N16</f>
-        <v>9645b781-6004-3818-9099-a02bb0758e48-016</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
       </c>
       <c r="AJ16" s="115" t="str">
-        <f>P16</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK16" s="114" t="str">
-        <f ca="1">Q16</f>
-        <v>9645b781-6004-3818-9099-a02bb0758e48-016</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
       </c>
       <c r="AL16" s="115">
-        <f>R16</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM16" s="116">
-        <f ca="1">S16</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN16" s="117" t="str">
-        <f ca="1">T16</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0930-2e9c6-0016</v>
       </c>
       <c r="AO16" s="115" t="str">
-        <f>U16</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP16" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ16" s="118">
-        <f>G16</f>
+        <f t="shared" si="14"/>
         <v>84.761571000000004</v>
       </c>
       <c r="AR16" s="119" t="str">
-        <f>C16</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS16" s="120" t="str">
-        <f>H16</f>
+        <f t="shared" si="16"/>
         <v>USD</v>
       </c>
       <c r="AT16" s="118">
-        <f>D16*G16</f>
+        <f t="shared" si="17"/>
         <v>36034894.345078953</v>
       </c>
       <c r="AV16" s="115" t="str">
-        <f>Y16</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-A</v>
       </c>
       <c r="AW16" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX16" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Customer Payment Instruction [09:30]</v>
       </c>
       <c r="AY16" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ16" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB9645B781600438189</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCB750C143210B024203</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
@@ -6613,7 +6613,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-132564.67000000001</v>
       </c>
       <c r="G17" s="102">
@@ -6636,138 +6636,138 @@
       </c>
       <c r="M17" s="136"/>
       <c r="N17" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>69b819e4-6570-9e72-6c9c-7df28c1c16da-017</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
       </c>
       <c r="O17" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>BDT.CUSTINSTA.SCB000</v>
       </c>
       <c r="P17" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="Q17" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>69b819e4-6570-9e72-6c9c-7df28c1c16da-017</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
       </c>
       <c r="R17" s="102">
         <v>1</v>
       </c>
       <c r="S17" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T17" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0930-2e9c6-0017</v>
       </c>
       <c r="U17" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V17" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>PAY</v>
       </c>
       <c r="W17" s="102" t="str">
-        <f>C17</f>
+        <f t="shared" si="36"/>
         <v>BDT</v>
       </c>
       <c r="X17" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-132564.67000000001</v>
       </c>
       <c r="Y17" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>CUSTINST-A</v>
       </c>
       <c r="AA17" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]Customer Payment Instruction [09:30]</v>
       </c>
       <c r="AB17" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC17" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCB69B819E465709E726</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCBDBF68B7D3CA92C0AA</v>
       </c>
       <c r="AD17" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE17" s="103" t="str">
-        <f>IF(RIGHT(Y17,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI17" s="114" t="str">
-        <f ca="1">N17</f>
-        <v>69b819e4-6570-9e72-6c9c-7df28c1c16da-017</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
       </c>
       <c r="AJ17" s="115" t="str">
-        <f>P17</f>
+        <f t="shared" si="8"/>
         <v>Customer Payment Instruction</v>
       </c>
       <c r="AK17" s="114" t="str">
-        <f ca="1">Q17</f>
-        <v>69b819e4-6570-9e72-6c9c-7df28c1c16da-017</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
       </c>
       <c r="AL17" s="115">
-        <f>R17</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM17" s="116">
-        <f ca="1">S17</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN17" s="117" t="str">
-        <f ca="1">T17</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0930-2e9c6-0017</v>
       </c>
       <c r="AO17" s="115" t="str">
-        <f>U17</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP17" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ17" s="118">
-        <f>G17</f>
+        <f t="shared" si="14"/>
         <v>84.761493999999999</v>
       </c>
       <c r="AR17" s="119" t="str">
-        <f>C17</f>
+        <f t="shared" si="15"/>
         <v>BDT</v>
       </c>
       <c r="AS17" s="120" t="str">
-        <f>H17</f>
+        <f t="shared" si="16"/>
         <v>USD</v>
       </c>
       <c r="AT17" s="118">
-        <f>D17*G17</f>
+        <f t="shared" si="17"/>
         <v>11236379.480816981</v>
       </c>
       <c r="AV17" s="115" t="str">
-        <f>Y17</f>
+        <f t="shared" si="18"/>
         <v>CUSTINST-A</v>
       </c>
       <c r="AW17" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX17" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]Customer Payment Instruction [09:30]</v>
       </c>
       <c r="AY17" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ17" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB69B819E465709E726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="32"/>
+        <v>SCBDBF68B7D3CA92C0AA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="127">
         <v>0.40625</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-11500</v>
       </c>
       <c r="G18" s="102">
@@ -6807,135 +6807,135 @@
       </c>
       <c r="M18" s="136"/>
       <c r="N18" s="112" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>06edb4e4-875d-39ca-57da-2fd927296cca-018</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
       </c>
       <c r="O18" s="112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>USD.FXA.SCB000000000</v>
       </c>
       <c r="P18" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>FX Trade</v>
       </c>
       <c r="Q18" s="102" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>06edb4e4-875d-39ca-57da-2fd927296cca-018</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
       </c>
       <c r="R18" s="102">
         <v>1</v>
       </c>
       <c r="S18" s="113">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>43726</v>
       </c>
       <c r="T18" s="101" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="34"/>
         <v>ext-u2-0945-2e9c6-0018</v>
       </c>
       <c r="U18" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>SCB</v>
       </c>
       <c r="V18" s="112" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="W18" s="102" t="str">
-        <f>C18</f>
+        <f t="shared" si="36"/>
         <v>USD</v>
       </c>
       <c r="X18" s="102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>-11500</v>
       </c>
       <c r="Y18" s="102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>FX-A</v>
       </c>
       <c r="AA18" s="102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>[UC2]FX Trade                     [09:45]</v>
       </c>
       <c r="AB18" s="102" t="s">
         <v>92</v>
       </c>
       <c r="AC18" s="112" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>SCB06EDB4E4875D39CA5</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>SCBC17D638822C0562A8</v>
       </c>
       <c r="AD18" s="103" t="s">
         <v>99</v>
       </c>
       <c r="AE18" s="103" t="str">
-        <f>IF(RIGHT(Y18,1)="A","ACTUAL","FORECAST")</f>
+        <f t="shared" si="38"/>
         <v>ACTUAL</v>
       </c>
       <c r="AI18" s="114" t="str">
-        <f ca="1">N18</f>
-        <v>06edb4e4-875d-39ca-57da-2fd927296cca-018</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
       </c>
       <c r="AJ18" s="115" t="str">
-        <f>P18</f>
+        <f t="shared" si="8"/>
         <v>FX Trade</v>
       </c>
       <c r="AK18" s="114" t="str">
-        <f ca="1">Q18</f>
-        <v>06edb4e4-875d-39ca-57da-2fd927296cca-018</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
       </c>
       <c r="AL18" s="115">
-        <f>R18</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AM18" s="116">
-        <f ca="1">S18</f>
+        <f t="shared" ca="1" si="11"/>
         <v>43726</v>
       </c>
       <c r="AN18" s="117" t="str">
-        <f ca="1">T18</f>
+        <f t="shared" ca="1" si="12"/>
         <v>ext-u2-0945-2e9c6-0018</v>
       </c>
       <c r="AO18" s="115" t="str">
-        <f>U18</f>
+        <f t="shared" si="13"/>
         <v>SCB</v>
       </c>
       <c r="AP18" s="115" t="s">
         <v>78</v>
       </c>
       <c r="AQ18" s="118">
-        <f>G18</f>
+        <f t="shared" si="14"/>
         <v>84.765000000000001</v>
       </c>
       <c r="AR18" s="119" t="str">
-        <f>C18</f>
+        <f t="shared" si="15"/>
         <v>USD</v>
       </c>
       <c r="AS18" s="120" t="str">
-        <f>H18</f>
+        <f t="shared" si="16"/>
         <v>BDT</v>
       </c>
       <c r="AT18" s="118">
-        <f>D18*G18</f>
+        <f t="shared" si="17"/>
         <v>974797.5</v>
       </c>
       <c r="AV18" s="115" t="str">
-        <f>Y18</f>
+        <f t="shared" si="18"/>
         <v>FX-A</v>
       </c>
       <c r="AW18" s="116">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v>43726</v>
       </c>
       <c r="AX18" s="115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>[UC2]FX Trade                     [09:45]</v>
       </c>
       <c r="AY18" s="115" t="s">
         <v>92</v>
       </c>
       <c r="AZ18" s="114" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>SCB06EDB4E4875D39CA5</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>SCBC17D638822C0562A8</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
@@ -7908,15 +7908,7 @@
       <c r="M204" s="138"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ18" xr:uid="{88621948-3825-8D4E-9B84-10DAF6884FFE}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="CASHTX"/>
-        <filter val="CUSTINST"/>
-        <filter val="LOCKINST"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AZ18" xr:uid="{88621948-3825-8D4E-9B84-10DAF6884FFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7925,7 +7917,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63675585-963B-4714-A55B-796BAB32F3A2}">
           <x14:formula1>
-            <xm:f>'[XMLTXNGenerator-MASTER ACCOUNTS.xlsm]ACCTS'!#REF!</xm:f>
+            <xm:f>'C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\XML Deal Generator\[XMLTXNGenerator-MASTER ACCOUNTS.xlsm]ACCTS'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>O1</xm:sqref>
         </x14:dataValidation>

--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DB102-E81A-4A98-9230-11CEF5DC85D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35699D-8FA9-47CB-A79F-B13EE6A4F5EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2550" yWindow="2655" windowWidth="24810" windowHeight="9840" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 2" sheetId="3" r:id="rId1"/>
@@ -3917,11 +3917,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7B682-F497-477F-9652-BDAE0F7CB605}">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AZ204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A18"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI3:AZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,7 +3969,7 @@
     <col min="53" max="16384" width="13.140625" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="103" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
         <v>49</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <f>Instructions!A3</f>
         <v>0.33333333333333331</v>
@@ -4154,7 +4154,7 @@
       <c r="M2" s="136"/>
       <c r="N2" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
+        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
       </c>
       <c r="O2" s="112" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="Q2" s="112" t="str">
         <f ca="1">N2</f>
-        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
+        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
       </c>
       <c r="R2" s="102">
         <v>1</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="AC2" s="112" t="str">
         <f t="shared" ref="AC2:AC9" ca="1" si="5">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>SCBC7D3F86972DF636F7</v>
+        <v>SCBAEC5AA8348C21A3E0</v>
       </c>
       <c r="AD2" s="103" t="s">
         <v>99</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AI2" s="114" t="str">
         <f t="shared" ref="AI2:AI18" ca="1" si="7">N2</f>
-        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
+        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
       </c>
       <c r="AJ2" s="115" t="str">
         <f t="shared" ref="AJ2:AJ18" si="8">P2</f>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="AK2" s="114" t="str">
         <f t="shared" ref="AK2:AK18" ca="1" si="9">Q2</f>
-        <v>c7d3f869-72df-636f-7557-e567e62336e7-002</v>
+        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
       </c>
       <c r="AL2" s="115">
         <f t="shared" ref="AL2:AL18" si="10">R2</f>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="AZ2" s="114" t="str">
         <f t="shared" ref="AZ2:AZ9" ca="1" si="20">AC2</f>
-        <v>SCBC7D3F86972DF636F7</v>
+        <v>SCBAEC5AA8348C21A3E0</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
       <c r="M3" s="136"/>
       <c r="N3" s="112" t="str">
         <f t="shared" ref="N3:N9" ca="1" si="22">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
+        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
       </c>
       <c r="O3" s="112" t="str">
         <f t="shared" ref="O3:O18" si="23">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="Q3" s="102" t="str">
         <f t="shared" ref="Q3:Q8" ca="1" si="24">N3</f>
-        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
+        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
       </c>
       <c r="R3" s="102">
         <v>1</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="AC3" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB75DFA45E994924479</v>
+        <v>SCB932C8DD4952911A57</v>
       </c>
       <c r="AD3" s="103" t="s">
         <v>99</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="AI3" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
+        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
       </c>
       <c r="AJ3" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="AK3" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>75dfa45e-9949-2447-96da-c9cb58fe4fb2-003</v>
+        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
       </c>
       <c r="AL3" s="115">
         <f t="shared" si="10"/>
@@ -4459,10 +4459,10 @@
       </c>
       <c r="AZ3" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB75DFA45E994924479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB932C8DD4952911A57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="123">
         <f>Instructions!A5</f>
         <v>0.3611111111111111</v>
@@ -4504,7 +4504,7 @@
       <c r="M4" s="136"/>
       <c r="N4" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
+        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
       </c>
       <c r="O4" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="Q4" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
+        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
       </c>
       <c r="R4" s="102">
         <v>1</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="AC4" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB7D34FB191F39102A7</v>
+        <v>SCB779937315E7D8E85A</v>
       </c>
       <c r="AD4" s="103" t="s">
         <v>99</v>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="AI4" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
+        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
       </c>
       <c r="AJ4" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="AK4" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>7d34fb19-1f39-102a-7cc4-06105149304c-004</v>
+        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
       </c>
       <c r="AL4" s="115">
         <f t="shared" si="10"/>
@@ -4631,10 +4631,10 @@
       </c>
       <c r="AZ4" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB7D34FB191F39102A7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB779937315E7D8E85A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="123">
         <f>Instructions!A5</f>
         <v>0.3611111111111111</v>
@@ -4675,7 +4675,7 @@
       <c r="M5" s="136"/>
       <c r="N5" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
+        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
       </c>
       <c r="O5" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="Q5" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
+        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
       </c>
       <c r="R5" s="102">
         <v>1</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="AC5" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBDD458733313577983</v>
+        <v>SCB32C3AD7F40C004222</v>
       </c>
       <c r="AD5" s="103" t="s">
         <v>99</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="AI5" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
+        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
       </c>
       <c r="AJ5" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="AK5" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dd458733-3135-7798-322d-d94ac6e2991a-005</v>
+        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
       </c>
       <c r="AL5" s="115">
         <f t="shared" si="10"/>
@@ -4802,10 +4802,10 @@
       </c>
       <c r="AZ5" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBDD458733313577983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB32C3AD7F40C004222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="125">
         <f>Instructions!A7</f>
         <v>0.375</v>
@@ -4843,7 +4843,7 @@
       <c r="M6" s="136"/>
       <c r="N6" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
+        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
       </c>
       <c r="O6" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="Q6" s="102" t="str">
         <f ca="1">N6</f>
-        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
+        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
       </c>
       <c r="R6" s="102">
         <v>1</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="AC6" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB2C16297D5A83472E3</v>
+        <v>SCBB51FE05C7D3602973</v>
       </c>
       <c r="AD6" s="103" t="s">
         <v>99</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="AI6" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
+        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
       </c>
       <c r="AJ6" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="AK6" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2c16297d-5a83-472e-3e98-54ceadbe4d07-006</v>
+        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
       </c>
       <c r="AL6" s="115">
         <f t="shared" si="10"/>
@@ -4970,10 +4970,10 @@
       </c>
       <c r="AZ6" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB2C16297D5A83472E3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCBB51FE05C7D3602973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="127">
         <f>Instructions!A8</f>
         <v>0.38541666666666669</v>
@@ -5014,7 +5014,7 @@
       <c r="M7" s="136"/>
       <c r="N7" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
+        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
       </c>
       <c r="O7" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Q7" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
+        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
       </c>
       <c r="R7" s="102">
         <v>1</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="AC7" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBF042F27A3D5806B34</v>
+        <v>SCBDC12B1AA2CEC8E237</v>
       </c>
       <c r="AD7" s="103" t="s">
         <v>99</v>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="AI7" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
+        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
       </c>
       <c r="AJ7" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="AK7" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>f042f27a-3d58-06b3-454c-bbc43c15959d-007</v>
+        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
       </c>
       <c r="AL7" s="115">
         <f t="shared" si="10"/>
@@ -5141,10 +5141,10 @@
       </c>
       <c r="AZ7" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBF042F27A3D5806B34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCBDC12B1AA2CEC8E237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="127">
         <f>Instructions!A8</f>
         <v>0.38541666666666669</v>
@@ -5185,7 +5185,7 @@
       <c r="M8" s="136"/>
       <c r="N8" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
+        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
       </c>
       <c r="O8" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Q8" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
+        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
       </c>
       <c r="R8" s="102">
         <v>1</v>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="AC8" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB25F02E6B72E9578A3</v>
+        <v>SCB787CE52A29A194636</v>
       </c>
       <c r="AD8" s="103" t="s">
         <v>99</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="AI8" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
+        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
       </c>
       <c r="AJ8" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="AK8" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>25f02e6b-72e9-578a-3508-5ddbda0f6628-008</v>
+        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
       </c>
       <c r="AL8" s="115">
         <f t="shared" si="10"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="AZ8" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB25F02E6B72E9578A3</v>
+        <v>SCB787CE52A29A194636</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
@@ -5359,7 +5359,7 @@
       <c r="M9" s="136"/>
       <c r="N9" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
+        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
       </c>
       <c r="O9" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="Q9" s="102" t="str">
         <f ca="1">N9</f>
-        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
+        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
       </c>
       <c r="R9" s="102">
         <v>1</v>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="AC9" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBDAFFBE42256D45635</v>
+        <v>SCBD7E3CA8C44CB45D96</v>
       </c>
       <c r="AD9" s="103" t="s">
         <v>99</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AI9" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
+        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
       </c>
       <c r="AJ9" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="AK9" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>daffbe42-256d-4563-5a61-f048dd359a8d-009</v>
+        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
       </c>
       <c r="AL9" s="115">
         <f t="shared" si="10"/>
@@ -5486,10 +5486,10 @@
       </c>
       <c r="AZ9" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBDAFFBE42256D45635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" s="140" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>SCBD7E3CA8C44CB45D96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="140" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" s="141"/>
       <c r="F10" s="103"/>
       <c r="I10" s="142"/>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110">
         <v>0.33333333333333331</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="M11" s="136"/>
       <c r="N11" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
+        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
       </c>
       <c r="O11" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="Q11" s="112" t="str">
         <f ca="1">N11</f>
-        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
+        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
       </c>
       <c r="R11" s="102">
         <v>1</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="AC11" s="112" t="str">
         <f ca="1">UPPER(LEFT(U11&amp;SUBSTITUTE(N11,"-",""),20))</f>
-        <v>SCB1F928E08556096117</v>
+        <v>SCB19CE51E901026C030</v>
       </c>
       <c r="AD11" s="103" t="s">
         <v>99</v>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="AI11" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
+        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
       </c>
       <c r="AJ11" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="AK11" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1f928e08-5560-9611-7c80-539925684a2f-011</v>
+        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
       </c>
       <c r="AL11" s="115">
         <f t="shared" si="10"/>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="AZ11" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB1F928E08556096117</v>
+        <v>SCB19CE51E901026C030</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
       <c r="M12" s="136"/>
       <c r="N12" s="112" t="str">
         <f t="shared" ref="N12:N18" ca="1" si="39">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
+        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
       </c>
       <c r="O12" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="Q12" s="102" t="str">
         <f t="shared" ref="Q12:Q18" ca="1" si="40">N12</f>
-        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
+        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
       </c>
       <c r="R12" s="102">
         <v>1</v>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="AC12" s="112" t="str">
         <f t="shared" ref="AC12:AC18" ca="1" si="42">UPPER(LEFT(U12&amp;SUBSTITUTE(N12,"-",""),20))</f>
-        <v>SCB7C11830B53469E256</v>
+        <v>SCB6C55404495FB3AB44</v>
       </c>
       <c r="AD12" s="103" t="s">
         <v>99</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="AI12" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
+        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
       </c>
       <c r="AJ12" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="AK12" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>7c11830b-5346-9e25-6c86-7757023b0202-012</v>
+        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
       </c>
       <c r="AL12" s="115">
         <f t="shared" si="10"/>
@@ -5915,10 +5915,10 @@
       </c>
       <c r="AZ12" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB7C11830B53469E256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB6C55404495FB3AB44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
         <v>0.3611111111111111</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="M13" s="136"/>
       <c r="N13" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
+        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
       </c>
       <c r="O13" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="Q13" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
+        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
       </c>
       <c r="R13" s="102">
         <v>1</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="AC13" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCBE127EC0F2E403B8B6</v>
+        <v>SCB122B0C492E209E405</v>
       </c>
       <c r="AD13" s="103" t="s">
         <v>99</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="AI13" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
+        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
       </c>
       <c r="AJ13" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="AK13" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>e127ec0f-2e40-3b8b-63ec-1af0b3a87e9c-013</v>
+        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
       </c>
       <c r="AL13" s="115">
         <f t="shared" si="10"/>
@@ -6086,10 +6086,10 @@
       </c>
       <c r="AZ13" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCBE127EC0F2E403B8B6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB122B0C492E209E405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
         <v>0.3611111111111111</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="M14" s="136"/>
       <c r="N14" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
+        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
       </c>
       <c r="O14" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="Q14" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
+        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
       </c>
       <c r="R14" s="102">
         <v>1</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="AC14" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB7858D3655AD79A368</v>
+        <v>SCB48C5978A91E687C14</v>
       </c>
       <c r="AD14" s="103" t="s">
         <v>99</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="AI14" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
+        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
       </c>
       <c r="AJ14" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="AK14" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>7858d365-5ad7-9a36-8c91-24afdaa76a7a-014</v>
+        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
       </c>
       <c r="AL14" s="115">
         <f t="shared" si="10"/>
@@ -6257,10 +6257,10 @@
       </c>
       <c r="AZ14" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB7858D3655AD79A368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB48C5978A91E687C14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="125">
         <v>0.375</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="M15" s="136"/>
       <c r="N15" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
+        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
       </c>
       <c r="O15" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="Q15" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
+        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
       </c>
       <c r="R15" s="102">
         <v>1</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="AC15" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB9A6E53B513F9366C8</v>
+        <v>SCB1568AB1A076B89DD6</v>
       </c>
       <c r="AD15" s="103" t="s">
         <v>99</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="AI15" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
+        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
       </c>
       <c r="AJ15" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="AK15" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>9a6e53b5-13f9-366c-8ca1-98ac80d22886-015</v>
+        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
       </c>
       <c r="AL15" s="115">
         <f t="shared" si="10"/>
@@ -6422,10 +6422,10 @@
       </c>
       <c r="AZ15" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB9A6E53B513F9366C8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB1568AB1A076B89DD6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="127">
         <v>0.39583333333333331</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="M16" s="136"/>
       <c r="N16" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
+        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
       </c>
       <c r="O16" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="Q16" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
+        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
       </c>
       <c r="R16" s="102">
         <v>1</v>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="AC16" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB750C143210B024203</v>
+        <v>SCB8FC9BA924C2546CA3</v>
       </c>
       <c r="AD16" s="103" t="s">
         <v>99</v>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AI16" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
+        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
       </c>
       <c r="AJ16" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="AK16" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>750c1432-10b0-2420-3ac6-e5059c6e7c3c-016</v>
+        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
       </c>
       <c r="AL16" s="115">
         <f t="shared" si="10"/>
@@ -6593,10 +6593,10 @@
       </c>
       <c r="AZ16" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB750C143210B024203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB8FC9BA924C2546CA3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="127">
         <v>0.39583333333333331</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="M17" s="136"/>
       <c r="N17" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
+        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
       </c>
       <c r="O17" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="Q17" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
+        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
       </c>
       <c r="R17" s="102">
         <v>1</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="AC17" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCBDBF68B7D3CA92C0AA</v>
+        <v>SCB0FD7B20C544471CF2</v>
       </c>
       <c r="AD17" s="103" t="s">
         <v>99</v>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="AI17" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
+        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
       </c>
       <c r="AJ17" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="AK17" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dbf68b7d-3ca9-2c0a-a2d2-77378b139994-017</v>
+        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
       </c>
       <c r="AL17" s="115">
         <f t="shared" si="10"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AZ17" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCBDBF68B7D3CA92C0AA</v>
+        <v>SCB0FD7B20C544471CF2</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
       <c r="M18" s="136"/>
       <c r="N18" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
+        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
       </c>
       <c r="O18" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="Q18" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
+        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
       </c>
       <c r="R18" s="102">
         <v>1</v>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="AC18" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCBC17D638822C0562A8</v>
+        <v>SCB16C209DA62E513126</v>
       </c>
       <c r="AD18" s="103" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="AI18" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
+        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
       </c>
       <c r="AJ18" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AK18" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>c17d6388-22c0-562a-84bb-d71be7d3a37f-018</v>
+        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
       </c>
       <c r="AL18" s="115">
         <f t="shared" si="10"/>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="AZ18" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCBC17D638822C0562A8</v>
+        <v>SCB16C209DA62E513126</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
@@ -7908,7 +7908,14 @@
       <c r="M204" s="138"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ18" xr:uid="{88621948-3825-8D4E-9B84-10DAF6884FFE}"/>
+  <autoFilter ref="A1:AZ18" xr:uid="{88621948-3825-8D4E-9B84-10DAF6884FFE}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="FX Lock In"/>
+        <filter val="FX Trade"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 2 -WIP (version 3).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35699D-8FA9-47CB-A79F-B13EE6A4F5EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA893BB-9885-4EB4-B241-A29A8B7DE634}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
+    <workbookView xWindow="3375" yWindow="2865" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{6D542B46-E617-49B7-BD2E-D210654001B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 2" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ImportData!$A$1:$AZ$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="103">
   <si>
     <t>Customer payment instructions</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1755,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,8 +3923,8 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AZ204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI3:AZ18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N14" sqref="N13:AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,7 +4157,7 @@
       <c r="M2" s="136"/>
       <c r="N2" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
+        <v>375cc996-83ca-1aec-8615-7a5f54c25152-002</v>
       </c>
       <c r="O2" s="112" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -4166,7 +4169,7 @@
       </c>
       <c r="Q2" s="112" t="str">
         <f ca="1">N2</f>
-        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
+        <v>375cc996-83ca-1aec-8615-7a5f54c25152-002</v>
       </c>
       <c r="R2" s="102">
         <v>1</v>
@@ -4211,7 +4214,7 @@
       </c>
       <c r="AC2" s="112" t="str">
         <f t="shared" ref="AC2:AC9" ca="1" si="5">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>SCBAEC5AA8348C21A3E0</v>
+        <v>SCB375CC99683CA1AEC8</v>
       </c>
       <c r="AD2" s="103" t="s">
         <v>99</v>
@@ -4222,7 +4225,7 @@
       </c>
       <c r="AI2" s="114" t="str">
         <f t="shared" ref="AI2:AI18" ca="1" si="7">N2</f>
-        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
+        <v>375cc996-83ca-1aec-8615-7a5f54c25152-002</v>
       </c>
       <c r="AJ2" s="115" t="str">
         <f t="shared" ref="AJ2:AJ18" si="8">P2</f>
@@ -4230,7 +4233,7 @@
       </c>
       <c r="AK2" s="114" t="str">
         <f t="shared" ref="AK2:AK18" ca="1" si="9">Q2</f>
-        <v>aec5aa83-48c2-1a3e-044c-57315d6782a5-002</v>
+        <v>375cc996-83ca-1aec-8615-7a5f54c25152-002</v>
       </c>
       <c r="AL2" s="115">
         <f t="shared" ref="AL2:AL18" si="10">R2</f>
@@ -4284,10 +4287,10 @@
       </c>
       <c r="AZ2" s="114" t="str">
         <f t="shared" ref="AZ2:AZ9" ca="1" si="20">AC2</f>
-        <v>SCBAEC5AA8348C21A3E0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB375CC99683CA1AEC8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="121">
         <f>Instructions!A4</f>
         <v>0.34027777777777773</v>
@@ -4332,7 +4335,7 @@
       <c r="M3" s="136"/>
       <c r="N3" s="112" t="str">
         <f t="shared" ref="N3:N9" ca="1" si="22">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
+        <v>1425f7dc-70c0-7cdf-0320-b4c9136f533f-003</v>
       </c>
       <c r="O3" s="112" t="str">
         <f t="shared" ref="O3:O18" si="23">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="Q3" s="102" t="str">
         <f t="shared" ref="Q3:Q8" ca="1" si="24">N3</f>
-        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
+        <v>1425f7dc-70c0-7cdf-0320-b4c9136f533f-003</v>
       </c>
       <c r="R3" s="102">
         <v>1</v>
@@ -4386,7 +4389,7 @@
       </c>
       <c r="AC3" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB932C8DD4952911A57</v>
+        <v>SCB1425F7DC70C07CDF0</v>
       </c>
       <c r="AD3" s="103" t="s">
         <v>99</v>
@@ -4397,7 +4400,7 @@
       </c>
       <c r="AI3" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
+        <v>1425f7dc-70c0-7cdf-0320-b4c9136f533f-003</v>
       </c>
       <c r="AJ3" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4405,7 +4408,7 @@
       </c>
       <c r="AK3" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>932c8dd4-9529-11a5-7c2c-e684555b4788-003</v>
+        <v>1425f7dc-70c0-7cdf-0320-b4c9136f533f-003</v>
       </c>
       <c r="AL3" s="115">
         <f t="shared" si="10"/>
@@ -4424,7 +4427,7 @@
         <v>SCB</v>
       </c>
       <c r="AP3" s="115" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AQ3" s="118">
         <f t="shared" si="14"/>
@@ -4459,10 +4462,10 @@
       </c>
       <c r="AZ3" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB932C8DD4952911A57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <v>SCB1425F7DC70C07CDF0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="123">
         <f>Instructions!A5</f>
         <v>0.3611111111111111</v>
@@ -4504,7 +4507,7 @@
       <c r="M4" s="136"/>
       <c r="N4" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
+        <v>0e68d145-5444-3f45-4bdb-eaa0dd20335a-004</v>
       </c>
       <c r="O4" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4516,7 +4519,7 @@
       </c>
       <c r="Q4" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
+        <v>0e68d145-5444-3f45-4bdb-eaa0dd20335a-004</v>
       </c>
       <c r="R4" s="102">
         <v>1</v>
@@ -4558,7 +4561,7 @@
       </c>
       <c r="AC4" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB779937315E7D8E85A</v>
+        <v>SCB0E68D14554443F454</v>
       </c>
       <c r="AD4" s="103" t="s">
         <v>99</v>
@@ -4569,7 +4572,7 @@
       </c>
       <c r="AI4" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
+        <v>0e68d145-5444-3f45-4bdb-eaa0dd20335a-004</v>
       </c>
       <c r="AJ4" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4577,7 +4580,7 @@
       </c>
       <c r="AK4" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>77993731-5e7d-8e85-a254-86cf599a7b0b-004</v>
+        <v>0e68d145-5444-3f45-4bdb-eaa0dd20335a-004</v>
       </c>
       <c r="AL4" s="115">
         <f t="shared" si="10"/>
@@ -4631,10 +4634,10 @@
       </c>
       <c r="AZ4" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB779937315E7D8E85A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <v>SCB0E68D14554443F454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="123">
         <f>Instructions!A5</f>
         <v>0.3611111111111111</v>
@@ -4675,7 +4678,7 @@
       <c r="M5" s="136"/>
       <c r="N5" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
+        <v>edf5e542-701c-06a8-693a-93c09310a500-005</v>
       </c>
       <c r="O5" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="Q5" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
+        <v>edf5e542-701c-06a8-693a-93c09310a500-005</v>
       </c>
       <c r="R5" s="102">
         <v>1</v>
@@ -4729,7 +4732,7 @@
       </c>
       <c r="AC5" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB32C3AD7F40C004222</v>
+        <v>SCBEDF5E542701C06A86</v>
       </c>
       <c r="AD5" s="103" t="s">
         <v>99</v>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="AI5" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
+        <v>edf5e542-701c-06a8-693a-93c09310a500-005</v>
       </c>
       <c r="AJ5" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4748,7 +4751,7 @@
       </c>
       <c r="AK5" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>32c3ad7f-40c0-0422-2f59-8302973c6d31-005</v>
+        <v>edf5e542-701c-06a8-693a-93c09310a500-005</v>
       </c>
       <c r="AL5" s="115">
         <f t="shared" si="10"/>
@@ -4802,7 +4805,7 @@
       </c>
       <c r="AZ5" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB32C3AD7F40C004222</v>
+        <v>SCBEDF5E542701C06A86</v>
       </c>
     </row>
     <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4843,7 +4846,7 @@
       <c r="M6" s="136"/>
       <c r="N6" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
+        <v>8e063286-2809-8ffc-745d-8d35ff221c1f-006</v>
       </c>
       <c r="O6" s="112" t="str">
         <f t="shared" si="23"/>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="Q6" s="102" t="str">
         <f ca="1">N6</f>
-        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
+        <v>8e063286-2809-8ffc-745d-8d35ff221c1f-006</v>
       </c>
       <c r="R6" s="102">
         <v>1</v>
@@ -4897,7 +4900,7 @@
       </c>
       <c r="AC6" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBB51FE05C7D3602973</v>
+        <v>SCB8E06328628098FFC7</v>
       </c>
       <c r="AD6" s="103" t="s">
         <v>99</v>
@@ -4908,7 +4911,7 @@
       </c>
       <c r="AI6" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
+        <v>8e063286-2809-8ffc-745d-8d35ff221c1f-006</v>
       </c>
       <c r="AJ6" s="115" t="str">
         <f t="shared" si="8"/>
@@ -4916,7 +4919,7 @@
       </c>
       <c r="AK6" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>b51fe05c-7d36-0297-3678-4afdd5df2e13-006</v>
+        <v>8e063286-2809-8ffc-745d-8d35ff221c1f-006</v>
       </c>
       <c r="AL6" s="115">
         <f t="shared" si="10"/>
@@ -4970,7 +4973,7 @@
       </c>
       <c r="AZ6" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBB51FE05C7D3602973</v>
+        <v>SCB8E06328628098FFC7</v>
       </c>
     </row>
     <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5014,7 +5017,7 @@
       <c r="M7" s="136"/>
       <c r="N7" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
+        <v>ac82add1-8c15-149e-4d30-73fb5b910e48-007</v>
       </c>
       <c r="O7" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5026,7 +5029,7 @@
       </c>
       <c r="Q7" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
+        <v>ac82add1-8c15-149e-4d30-73fb5b910e48-007</v>
       </c>
       <c r="R7" s="102">
         <v>1</v>
@@ -5068,7 +5071,7 @@
       </c>
       <c r="AC7" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBDC12B1AA2CEC8E237</v>
+        <v>SCBAC82ADD18C15149E4</v>
       </c>
       <c r="AD7" s="103" t="s">
         <v>99</v>
@@ -5079,7 +5082,7 @@
       </c>
       <c r="AI7" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
+        <v>ac82add1-8c15-149e-4d30-73fb5b910e48-007</v>
       </c>
       <c r="AJ7" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5087,7 +5090,7 @@
       </c>
       <c r="AK7" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>dc12b1aa-2cec-8e23-71d6-b7f995d10df9-007</v>
+        <v>ac82add1-8c15-149e-4d30-73fb5b910e48-007</v>
       </c>
       <c r="AL7" s="115">
         <f t="shared" si="10"/>
@@ -5141,7 +5144,7 @@
       </c>
       <c r="AZ7" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBDC12B1AA2CEC8E237</v>
+        <v>SCBAC82ADD18C15149E4</v>
       </c>
     </row>
     <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5185,7 +5188,7 @@
       <c r="M8" s="136"/>
       <c r="N8" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
+        <v>f4a6f30f-804a-72da-511e-6a97b3ff04f5-008</v>
       </c>
       <c r="O8" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5197,7 +5200,7 @@
       </c>
       <c r="Q8" s="102" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
+        <v>f4a6f30f-804a-72da-511e-6a97b3ff04f5-008</v>
       </c>
       <c r="R8" s="102">
         <v>1</v>
@@ -5239,7 +5242,7 @@
       </c>
       <c r="AC8" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCB787CE52A29A194636</v>
+        <v>SCBF4A6F30F804A72DA5</v>
       </c>
       <c r="AD8" s="103" t="s">
         <v>99</v>
@@ -5250,7 +5253,7 @@
       </c>
       <c r="AI8" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
+        <v>f4a6f30f-804a-72da-511e-6a97b3ff04f5-008</v>
       </c>
       <c r="AJ8" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5258,7 +5261,7 @@
       </c>
       <c r="AK8" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>787ce52a-29a1-9463-65fd-1bf3b685737a-008</v>
+        <v>f4a6f30f-804a-72da-511e-6a97b3ff04f5-008</v>
       </c>
       <c r="AL8" s="115">
         <f t="shared" si="10"/>
@@ -5312,10 +5315,10 @@
       </c>
       <c r="AZ8" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCB787CE52A29A194636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCBF4A6F30F804A72DA5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="127">
         <v>0.38541666666666669</v>
       </c>
@@ -5359,7 +5362,7 @@
       <c r="M9" s="136"/>
       <c r="N9" s="112" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
+        <v>5fc26308-23b2-7dc0-a0c6-097d731c1afc-009</v>
       </c>
       <c r="O9" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5371,7 +5374,7 @@
       </c>
       <c r="Q9" s="102" t="str">
         <f ca="1">N9</f>
-        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
+        <v>5fc26308-23b2-7dc0-a0c6-097d731c1afc-009</v>
       </c>
       <c r="R9" s="102">
         <v>1</v>
@@ -5413,7 +5416,7 @@
       </c>
       <c r="AC9" s="112" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>SCBD7E3CA8C44CB45D96</v>
+        <v>SCB5FC2630823B27DC0A</v>
       </c>
       <c r="AD9" s="103" t="s">
         <v>99</v>
@@ -5424,7 +5427,7 @@
       </c>
       <c r="AI9" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
+        <v>5fc26308-23b2-7dc0-a0c6-097d731c1afc-009</v>
       </c>
       <c r="AJ9" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5432,7 +5435,7 @@
       </c>
       <c r="AK9" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>d7e3ca8c-44cb-45d9-6a6b-e093c31582ae-009</v>
+        <v>5fc26308-23b2-7dc0-a0c6-097d731c1afc-009</v>
       </c>
       <c r="AL9" s="115">
         <f t="shared" si="10"/>
@@ -5451,7 +5454,7 @@
         <v>SCB</v>
       </c>
       <c r="AP9" s="115" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AQ9" s="118">
         <f t="shared" si="14"/>
@@ -5486,7 +5489,7 @@
       </c>
       <c r="AZ9" s="114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SCBD7E3CA8C44CB45D96</v>
+        <v>SCB5FC2630823B27DC0A</v>
       </c>
     </row>
     <row r="10" spans="1:52" s="140" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5617,7 +5620,7 @@
       <c r="M11" s="136"/>
       <c r="N11" s="112" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
+        <v>1b5b9c17-6cb3-5f35-7d2f-4a029ce68a55-011</v>
       </c>
       <c r="O11" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5629,7 +5632,7 @@
       </c>
       <c r="Q11" s="112" t="str">
         <f ca="1">N11</f>
-        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
+        <v>1b5b9c17-6cb3-5f35-7d2f-4a029ce68a55-011</v>
       </c>
       <c r="R11" s="102">
         <v>1</v>
@@ -5671,7 +5674,7 @@
       </c>
       <c r="AC11" s="112" t="str">
         <f ca="1">UPPER(LEFT(U11&amp;SUBSTITUTE(N11,"-",""),20))</f>
-        <v>SCB19CE51E901026C030</v>
+        <v>SCB1B5B9C176CB35F357</v>
       </c>
       <c r="AD11" s="103" t="s">
         <v>99</v>
@@ -5682,7 +5685,7 @@
       </c>
       <c r="AI11" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
+        <v>1b5b9c17-6cb3-5f35-7d2f-4a029ce68a55-011</v>
       </c>
       <c r="AJ11" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5690,7 +5693,7 @@
       </c>
       <c r="AK11" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>19ce51e9-0102-6c03-006b-c3e064a378a2-011</v>
+        <v>1b5b9c17-6cb3-5f35-7d2f-4a029ce68a55-011</v>
       </c>
       <c r="AL11" s="115">
         <f t="shared" si="10"/>
@@ -5744,10 +5747,10 @@
       </c>
       <c r="AZ11" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB19CE51E901026C030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB1B5B9C176CB35F357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="121">
         <v>0.34027777777777773</v>
       </c>
@@ -5788,7 +5791,7 @@
       <c r="M12" s="136"/>
       <c r="N12" s="112" t="str">
         <f t="shared" ref="N12:N18" ca="1" si="39">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
+        <v>cb4d04c4-2332-5c66-0b77-9c9f9c3c40d8-012</v>
       </c>
       <c r="O12" s="112" t="str">
         <f t="shared" si="23"/>
@@ -5800,7 +5803,7 @@
       </c>
       <c r="Q12" s="102" t="str">
         <f t="shared" ref="Q12:Q18" ca="1" si="40">N12</f>
-        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
+        <v>cb4d04c4-2332-5c66-0b77-9c9f9c3c40d8-012</v>
       </c>
       <c r="R12" s="102">
         <v>1</v>
@@ -5842,7 +5845,7 @@
       </c>
       <c r="AC12" s="112" t="str">
         <f t="shared" ref="AC12:AC18" ca="1" si="42">UPPER(LEFT(U12&amp;SUBSTITUTE(N12,"-",""),20))</f>
-        <v>SCB6C55404495FB3AB44</v>
+        <v>SCBCB4D04C423325C660</v>
       </c>
       <c r="AD12" s="103" t="s">
         <v>99</v>
@@ -5853,7 +5856,7 @@
       </c>
       <c r="AI12" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
+        <v>cb4d04c4-2332-5c66-0b77-9c9f9c3c40d8-012</v>
       </c>
       <c r="AJ12" s="115" t="str">
         <f t="shared" si="8"/>
@@ -5861,7 +5864,7 @@
       </c>
       <c r="AK12" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>6c554044-95fb-3ab4-4c65-6daaf153a027-012</v>
+        <v>cb4d04c4-2332-5c66-0b77-9c9f9c3c40d8-012</v>
       </c>
       <c r="AL12" s="115">
         <f t="shared" si="10"/>
@@ -5880,7 +5883,7 @@
         <v>SCB</v>
       </c>
       <c r="AP12" s="115" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AQ12" s="118">
         <f t="shared" si="14"/>
@@ -5915,10 +5918,10 @@
       </c>
       <c r="AZ12" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB6C55404495FB3AB44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <v>SCBCB4D04C423325C660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
         <v>0.3611111111111111</v>
       </c>
@@ -5954,16 +5957,16 @@
         <v>74</v>
       </c>
       <c r="L13" s="136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="136"/>
       <c r="N13" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
+        <v>8eb5f88d-3a41-6d2b-4ac5-85426ac799c9-013</v>
       </c>
       <c r="O13" s="112" t="str">
         <f t="shared" si="23"/>
-        <v>BDT.CASHTXA.SCB00000</v>
+        <v>BDT.CUSTINSTA.SCB000</v>
       </c>
       <c r="P13" s="102" t="str">
         <f t="shared" si="33"/>
@@ -5971,7 +5974,7 @@
       </c>
       <c r="Q13" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
+        <v>8eb5f88d-3a41-6d2b-4ac5-85426ac799c9-013</v>
       </c>
       <c r="R13" s="102">
         <v>1</v>
@@ -6002,7 +6005,7 @@
       </c>
       <c r="Y13" s="102" t="str">
         <f t="shared" si="28"/>
-        <v>CASHTX-A</v>
+        <v>CUSTINST-A</v>
       </c>
       <c r="AA13" s="102" t="str">
         <f t="shared" si="37"/>
@@ -6013,7 +6016,7 @@
       </c>
       <c r="AC13" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB122B0C492E209E405</v>
+        <v>SCB8EB5F88D3A416D2B4</v>
       </c>
       <c r="AD13" s="103" t="s">
         <v>99</v>
@@ -6024,7 +6027,7 @@
       </c>
       <c r="AI13" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
+        <v>8eb5f88d-3a41-6d2b-4ac5-85426ac799c9-013</v>
       </c>
       <c r="AJ13" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6032,7 +6035,7 @@
       </c>
       <c r="AK13" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>122b0c49-2e20-9e40-5f85-56e03d1f384d-013</v>
+        <v>8eb5f88d-3a41-6d2b-4ac5-85426ac799c9-013</v>
       </c>
       <c r="AL13" s="115">
         <f t="shared" si="10"/>
@@ -6071,7 +6074,7 @@
       </c>
       <c r="AV13" s="115" t="str">
         <f t="shared" si="18"/>
-        <v>CASHTX-A</v>
+        <v>CUSTINST-A</v>
       </c>
       <c r="AW13" s="116">
         <f t="shared" ca="1" si="30"/>
@@ -6086,10 +6089,10 @@
       </c>
       <c r="AZ13" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB122B0C492E209E405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+        <v>SCB8EB5F88D3A416D2B4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
         <v>0.3611111111111111</v>
       </c>
@@ -6125,16 +6128,16 @@
         <v>74</v>
       </c>
       <c r="L14" s="136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="136"/>
       <c r="N14" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
+        <v>9a958a6e-21cc-1aee-a2a4-db019de61448-014</v>
       </c>
       <c r="O14" s="112" t="str">
         <f t="shared" si="23"/>
-        <v>BDT.CASHTXA.SCB00000</v>
+        <v>BDT.CUSTINSTA.SCB000</v>
       </c>
       <c r="P14" s="102" t="str">
         <f t="shared" si="33"/>
@@ -6142,7 +6145,7 @@
       </c>
       <c r="Q14" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
+        <v>9a958a6e-21cc-1aee-a2a4-db019de61448-014</v>
       </c>
       <c r="R14" s="102">
         <v>1</v>
@@ -6173,7 +6176,7 @@
       </c>
       <c r="Y14" s="102" t="str">
         <f t="shared" si="28"/>
-        <v>CASHTX-A</v>
+        <v>CUSTINST-A</v>
       </c>
       <c r="AA14" s="102" t="str">
         <f t="shared" si="37"/>
@@ -6184,7 +6187,7 @@
       </c>
       <c r="AC14" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB48C5978A91E687C14</v>
+        <v>SCB9A958A6E21CC1AEEA</v>
       </c>
       <c r="AD14" s="103" t="s">
         <v>99</v>
@@ -6195,7 +6198,7 @@
       </c>
       <c r="AI14" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
+        <v>9a958a6e-21cc-1aee-a2a4-db019de61448-014</v>
       </c>
       <c r="AJ14" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6203,7 +6206,7 @@
       </c>
       <c r="AK14" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>48c5978a-91e6-87c1-4fe1-f9f943ce8bd7-014</v>
+        <v>9a958a6e-21cc-1aee-a2a4-db019de61448-014</v>
       </c>
       <c r="AL14" s="115">
         <f t="shared" si="10"/>
@@ -6242,7 +6245,7 @@
       </c>
       <c r="AV14" s="115" t="str">
         <f t="shared" si="18"/>
-        <v>CASHTX-A</v>
+        <v>CUSTINST-A</v>
       </c>
       <c r="AW14" s="116">
         <f t="shared" ca="1" si="30"/>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="AZ14" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB48C5978A91E687C14</v>
+        <v>SCB9A958A6E21CC1AEEA</v>
       </c>
     </row>
     <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6295,7 +6298,7 @@
       <c r="M15" s="136"/>
       <c r="N15" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
+        <v>b63386c8-9b4f-5de5-1665-c10dcf5b0470-015</v>
       </c>
       <c r="O15" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6307,7 +6310,7 @@
       </c>
       <c r="Q15" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
+        <v>b63386c8-9b4f-5de5-1665-c10dcf5b0470-015</v>
       </c>
       <c r="R15" s="102">
         <v>1</v>
@@ -6349,7 +6352,7 @@
       </c>
       <c r="AC15" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB1568AB1A076B89DD6</v>
+        <v>SCBB63386C89B4F5DE51</v>
       </c>
       <c r="AD15" s="103" t="s">
         <v>99</v>
@@ -6360,7 +6363,7 @@
       </c>
       <c r="AI15" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
+        <v>b63386c8-9b4f-5de5-1665-c10dcf5b0470-015</v>
       </c>
       <c r="AJ15" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6368,7 +6371,7 @@
       </c>
       <c r="AK15" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1568ab1a-076b-89dd-6c37-2393761b5b47-015</v>
+        <v>b63386c8-9b4f-5de5-1665-c10dcf5b0470-015</v>
       </c>
       <c r="AL15" s="115">
         <f t="shared" si="10"/>
@@ -6422,7 +6425,7 @@
       </c>
       <c r="AZ15" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB1568AB1A076B89DD6</v>
+        <v>SCBB63386C89B4F5DE51</v>
       </c>
     </row>
     <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6466,7 +6469,7 @@
       <c r="M16" s="136"/>
       <c r="N16" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
+        <v>086997b9-0f86-2566-7f88-ac7c292d538a-016</v>
       </c>
       <c r="O16" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6478,7 +6481,7 @@
       </c>
       <c r="Q16" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
+        <v>086997b9-0f86-2566-7f88-ac7c292d538a-016</v>
       </c>
       <c r="R16" s="102">
         <v>1</v>
@@ -6520,7 +6523,7 @@
       </c>
       <c r="AC16" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB8FC9BA924C2546CA3</v>
+        <v>SCB086997B90F8625667</v>
       </c>
       <c r="AD16" s="103" t="s">
         <v>99</v>
@@ -6531,7 +6534,7 @@
       </c>
       <c r="AI16" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
+        <v>086997b9-0f86-2566-7f88-ac7c292d538a-016</v>
       </c>
       <c r="AJ16" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6539,7 +6542,7 @@
       </c>
       <c r="AK16" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>8fc9ba92-4c25-46ca-32c6-41f82f9a3d52-016</v>
+        <v>086997b9-0f86-2566-7f88-ac7c292d538a-016</v>
       </c>
       <c r="AL16" s="115">
         <f t="shared" si="10"/>
@@ -6593,7 +6596,7 @@
       </c>
       <c r="AZ16" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB8FC9BA924C2546CA3</v>
+        <v>SCB086997B90F8625667</v>
       </c>
     </row>
     <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6637,7 +6640,7 @@
       <c r="M17" s="136"/>
       <c r="N17" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
+        <v>981314bc-5b94-17f8-07d8-192897530d29-017</v>
       </c>
       <c r="O17" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6649,7 +6652,7 @@
       </c>
       <c r="Q17" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
+        <v>981314bc-5b94-17f8-07d8-192897530d29-017</v>
       </c>
       <c r="R17" s="102">
         <v>1</v>
@@ -6691,7 +6694,7 @@
       </c>
       <c r="AC17" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB0FD7B20C544471CF2</v>
+        <v>SCB981314BC5B9417F80</v>
       </c>
       <c r="AD17" s="103" t="s">
         <v>99</v>
@@ -6702,7 +6705,7 @@
       </c>
       <c r="AI17" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
+        <v>981314bc-5b94-17f8-07d8-192897530d29-017</v>
       </c>
       <c r="AJ17" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6710,7 +6713,7 @@
       </c>
       <c r="AK17" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0fd7b20c-5444-71cf-2ff9-4f547f2e116c-017</v>
+        <v>981314bc-5b94-17f8-07d8-192897530d29-017</v>
       </c>
       <c r="AL17" s="115">
         <f t="shared" si="10"/>
@@ -6764,10 +6767,10 @@
       </c>
       <c r="AZ17" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB0FD7B20C544471CF2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+        <v>SCB981314BC5B9417F80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="127">
         <v>0.40625</v>
       </c>
@@ -6808,7 +6811,7 @@
       <c r="M18" s="136"/>
       <c r="N18" s="112" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
+        <v>5fa7432b-379c-413e-8e0e-718dbd8f0f81-018</v>
       </c>
       <c r="O18" s="112" t="str">
         <f t="shared" si="23"/>
@@ -6820,7 +6823,7 @@
       </c>
       <c r="Q18" s="102" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
+        <v>5fa7432b-379c-413e-8e0e-718dbd8f0f81-018</v>
       </c>
       <c r="R18" s="102">
         <v>1</v>
@@ -6862,7 +6865,7 @@
       </c>
       <c r="AC18" s="112" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>SCB16C209DA62E513126</v>
+        <v>SCB5FA7432B379C413E8</v>
       </c>
       <c r="AD18" s="103" t="s">
         <v>99</v>
@@ -6873,7 +6876,7 @@
       </c>
       <c r="AI18" s="114" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
+        <v>5fa7432b-379c-413e-8e0e-718dbd8f0f81-018</v>
       </c>
       <c r="AJ18" s="115" t="str">
         <f t="shared" si="8"/>
@@ -6881,7 +6884,7 @@
       </c>
       <c r="AK18" s="114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16c209da-62e5-1312-6d68-a821066506f7-018</v>
+        <v>5fa7432b-379c-413e-8e0e-718dbd8f0f81-018</v>
       </c>
       <c r="AL18" s="115">
         <f t="shared" si="10"/>
@@ -6900,7 +6903,7 @@
         <v>SCB</v>
       </c>
       <c r="AP18" s="115" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AQ18" s="118">
         <f t="shared" si="14"/>
@@ -6935,7 +6938,7 @@
       </c>
       <c r="AZ18" s="114" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>SCB16C209DA62E513126</v>
+        <v>SCB5FA7432B379C413E8</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
@@ -7909,10 +7912,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ18" xr:uid="{88621948-3825-8D4E-9B84-10DAF6884FFE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="08:40"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="FX Lock In"/>
-        <filter val="FX Trade"/>
+        <filter val="Customer Payment Instruction"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="BDT"/>
       </filters>
     </filterColumn>
   </autoFilter>
